--- a/rtss-pre1917/src/main/resources/ugvi/1905.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1905.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BOOKS\демография СССР и РСФСР\1897-1913\Отчет о состоянии народного здравия\таблицы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7EB44D-87A7-4DD2-AA89-74BD20986A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF5544F-6FF2-4B85-B397-1D61250EEFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="1950" windowWidth="16695" windowHeight="21630" xr2:uid="{EF18974A-21BE-4F01-A442-1E4708B6D095}"/>
+    <workbookView xWindow="19695" yWindow="1860" windowWidth="18495" windowHeight="22125" xr2:uid="{EF18974A-21BE-4F01-A442-1E4708B6D095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5B6F9-649D-48D0-A365-7FB0E4D5C1A0}">
   <dimension ref="A1:D466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101:D106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +983,7 @@
         <v>30299</v>
       </c>
       <c r="D18" s="2">
-        <v>20015</v>
+        <v>20915</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>417791</v>
       </c>
       <c r="D26" s="2">
-        <v>287155</v>
+        <v>267155</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">

--- a/rtss-pre1917/src/main/resources/ugvi/1905.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1905.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF5544F-6FF2-4B85-B397-1D61250EEFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BB4FBF-FCBC-4988-AE75-F37B67BFC94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19695" yWindow="1860" windowWidth="18495" windowHeight="22125" xr2:uid="{EF18974A-21BE-4F01-A442-1E4708B6D095}"/>
+    <workbookView xWindow="135" yWindow="750" windowWidth="26265" windowHeight="21690" xr2:uid="{EF18974A-21BE-4F01-A442-1E4708B6D095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="134">
   <si>
     <t>губ</t>
   </si>
@@ -361,6 +361,78 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>чж-гор-м NYY</t>
+  </si>
+  <si>
+    <t>чж-гор-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-гор-м YY</t>
+  </si>
+  <si>
+    <t>чр-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чс-гор-м YY</t>
+  </si>
+  <si>
+    <t>чс-гор-ж YY</t>
+  </si>
+  <si>
+    <t>чж-уез-м NYY</t>
+  </si>
+  <si>
+    <t>чж-уез-ж NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-м YY</t>
+  </si>
+  <si>
+    <t>чр-уез-ж YY</t>
+  </si>
+  <si>
+    <t>чс-уез-м YY</t>
+  </si>
+  <si>
+    <t>чс-уез-ж YY</t>
+  </si>
+  <si>
+    <t>1Ш1</t>
+  </si>
+  <si>
+    <t>ІЗШ</t>
+  </si>
+  <si>
+    <t>3841'</t>
+  </si>
+  <si>
+    <t>280"</t>
+  </si>
+  <si>
+    <t>72150С</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>1І58405</t>
+  </si>
+  <si>
+    <t>18080$</t>
+  </si>
+  <si>
+    <t>13454!</t>
+  </si>
+  <si>
+    <t>16*4197</t>
+  </si>
+  <si>
+    <t>2216С</t>
+  </si>
+  <si>
+    <t>2Ш</t>
   </si>
 </sst>
 </file>
@@ -404,10 +476,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,19 +797,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5B6F9-649D-48D0-A365-7FB0E4D5C1A0}">
-  <dimension ref="A1:D466"/>
+  <dimension ref="A1:Q466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,8 +828,44 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -761,8 +878,44 @@
       <c r="D2" s="2">
         <v>9835</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>16430</v>
+      </c>
+      <c r="G2" s="3">
+        <v>17416</v>
+      </c>
+      <c r="H2" s="3">
+        <v>709</v>
+      </c>
+      <c r="I2" s="3">
+        <v>691</v>
+      </c>
+      <c r="J2" s="3">
+        <v>605</v>
+      </c>
+      <c r="K2" s="3">
+        <v>481</v>
+      </c>
+      <c r="L2" s="3">
+        <v>168132</v>
+      </c>
+      <c r="M2" s="3">
+        <v>187512</v>
+      </c>
+      <c r="N2" s="3">
+        <v>7188</v>
+      </c>
+      <c r="O2" s="3">
+        <v>6689</v>
+      </c>
+      <c r="P2" s="3">
+        <v>4552</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -775,8 +928,44 @@
       <c r="D3" s="2">
         <v>28600</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>80210</v>
+      </c>
+      <c r="G3" s="3">
+        <v>77855</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3612</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3421</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3554</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2919</v>
+      </c>
+      <c r="L3" s="3">
+        <v>519270</v>
+      </c>
+      <c r="M3" s="3">
+        <v>492111</v>
+      </c>
+      <c r="N3" s="3">
+        <v>16714</v>
+      </c>
+      <c r="O3" s="3">
+        <v>15570</v>
+      </c>
+      <c r="P3" s="3">
+        <v>11577</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>10550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -789,8 +978,44 @@
       <c r="D4" s="2">
         <v>38953</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>114775</v>
+      </c>
+      <c r="G4" s="3">
+        <v>107676</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4331</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3761</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3025</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2522</v>
+      </c>
+      <c r="L4" s="3">
+        <v>800132</v>
+      </c>
+      <c r="M4" s="3">
+        <v>792372</v>
+      </c>
+      <c r="N4" s="3">
+        <v>26095</v>
+      </c>
+      <c r="O4" s="3">
+        <v>22964</v>
+      </c>
+      <c r="P4" s="3">
+        <v>16799</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>16607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -803,8 +1028,44 @@
       <c r="D5" s="2">
         <v>40956</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>122820</v>
+      </c>
+      <c r="G5" s="3">
+        <v>117366</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4367</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3867</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3032</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2380</v>
+      </c>
+      <c r="L5" s="3">
+        <v>728287</v>
+      </c>
+      <c r="M5" s="3">
+        <v>744176</v>
+      </c>
+      <c r="N5" s="3">
+        <v>26034</v>
+      </c>
+      <c r="O5" s="3">
+        <v>24197</v>
+      </c>
+      <c r="P5" s="3">
+        <v>18572</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>16974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -817,8 +1078,44 @@
       <c r="D6" s="2">
         <v>95540</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>186673</v>
+      </c>
+      <c r="G6" s="3">
+        <v>159397</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4797</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3352</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2842</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1568090</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1562840</v>
+      </c>
+      <c r="N6" s="3">
+        <v>68611</v>
+      </c>
+      <c r="O6" s="3">
+        <v>63918</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46592</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -831,8 +1128,44 @@
       <c r="D7" s="2">
         <v>44167</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>120586</v>
+      </c>
+      <c r="G7" s="3">
+        <v>119439</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3537</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2311</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1919</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="3">
+        <v>709666</v>
+      </c>
+      <c r="N7" s="3">
+        <v>29365</v>
+      </c>
+      <c r="O7" s="3">
+        <v>28063</v>
+      </c>
+      <c r="P7" s="3">
+        <v>20723</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>19214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -845,8 +1178,44 @@
       <c r="D8" s="2">
         <v>111293</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="3">
+        <v>297228</v>
+      </c>
+      <c r="G8" s="3">
+        <v>306906</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10316</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7523</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6115</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1777985</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1818234</v>
+      </c>
+      <c r="N8" s="3">
+        <v>75650</v>
+      </c>
+      <c r="O8" s="3">
+        <v>71041</v>
+      </c>
+      <c r="P8" s="3">
+        <v>50833</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>46822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -859,8 +1228,44 @@
       <c r="D9" s="2">
         <v>41124</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>79909</v>
+      </c>
+      <c r="G9" s="3">
+        <v>65451</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1886</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1731</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1559</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1392</v>
+      </c>
+      <c r="L9" s="3">
+        <v>747635</v>
+      </c>
+      <c r="M9" s="3">
+        <v>794670</v>
+      </c>
+      <c r="N9" s="3">
+        <v>24318</v>
+      </c>
+      <c r="O9" s="3">
+        <v>22881</v>
+      </c>
+      <c r="P9" s="3">
+        <v>19545</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>18628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -873,8 +1278,44 @@
       <c r="D10" s="2">
         <v>60893</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <v>133703</v>
+      </c>
+      <c r="G10" s="3">
+        <v>123736</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4812</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3897</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2832</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2371</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1153403</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="3">
+        <v>48914</v>
+      </c>
+      <c r="O10" s="3">
+        <v>45698</v>
+      </c>
+      <c r="P10" s="3">
+        <v>29104</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>26486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -887,8 +1328,44 @@
       <c r="D11" s="2">
         <v>50980</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <v>90049</v>
+      </c>
+      <c r="G11" s="3">
+        <v>87904</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2816</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2351</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1709</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1410</v>
+      </c>
+      <c r="L11" s="3">
+        <v>919289</v>
+      </c>
+      <c r="M11" s="3">
+        <v>915632</v>
+      </c>
+      <c r="N11" s="3">
+        <v>40239</v>
+      </c>
+      <c r="O11" s="3">
+        <v>37242</v>
+      </c>
+      <c r="P11" s="3">
+        <v>24892</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>22969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -901,8 +1378,44 @@
       <c r="D12" s="2">
         <v>65942</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>91335</v>
+      </c>
+      <c r="G12" s="3">
+        <v>83493</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5019</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4866</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4027</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3431</v>
+      </c>
+      <c r="L12" s="3">
+        <v>844835</v>
+      </c>
+      <c r="M12" s="3">
+        <v>852840</v>
+      </c>
+      <c r="N12" s="3">
+        <v>50815</v>
+      </c>
+      <c r="O12" s="3">
+        <v>48959</v>
+      </c>
+      <c r="P12" s="3">
+        <v>30054</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>28430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -915,8 +1428,44 @@
       <c r="D13" s="2">
         <v>106099</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>111850</v>
+      </c>
+      <c r="G13" s="3">
+        <v>115337</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3570</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2969</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2771</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2237</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1516421</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1534568</v>
+      </c>
+      <c r="N13" s="3">
+        <v>67357</v>
+      </c>
+      <c r="O13" s="3">
+        <v>63290</v>
+      </c>
+      <c r="P13" s="3">
+        <v>52876</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>48215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -929,8 +1478,44 @@
       <c r="D14" s="2">
         <v>694384</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>1425569</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1881962</v>
+      </c>
+      <c r="H14" s="3">
+        <v>50567</v>
+      </c>
+      <c r="I14" s="3">
+        <v>44324</v>
+      </c>
+      <c r="J14" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K14" s="3">
+        <v>30019</v>
+      </c>
+      <c r="L14" s="3">
+        <v>11464979</v>
+      </c>
+      <c r="M14" s="3">
+        <v>11563083</v>
+      </c>
+      <c r="N14" s="3">
+        <v>481300</v>
+      </c>
+      <c r="O14" s="3">
+        <v>450512</v>
+      </c>
+      <c r="P14" s="3">
+        <v>326119</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>301846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -943,8 +1528,44 @@
       <c r="D15" s="2">
         <v>34115</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>87192</v>
+      </c>
+      <c r="G15" s="3">
+        <v>89290</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3059</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2636</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1963</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1750</v>
+      </c>
+      <c r="L15" s="3">
+        <v>710233</v>
+      </c>
+      <c r="M15" s="3">
+        <v>726648</v>
+      </c>
+      <c r="N15" s="3">
+        <v>24646</v>
+      </c>
+      <c r="O15" s="3">
+        <v>23577</v>
+      </c>
+      <c r="P15" s="3">
+        <v>15437</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>14965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -957,8 +1578,44 @@
       <c r="D16" s="2">
         <v>16610</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <v>364424</v>
+      </c>
+      <c r="G16" s="3">
+        <v>403473</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="3">
+        <v>11549</v>
+      </c>
+      <c r="J16" s="3">
+        <v>8611</v>
+      </c>
+      <c r="K16" s="3">
+        <v>7699</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -971,8 +1628,44 @@
       <c r="D17" s="2">
         <v>26774</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="3">
+        <v>66405</v>
+      </c>
+      <c r="G17" s="3">
+        <v>69367</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1163</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1221</v>
+      </c>
+      <c r="J17" s="3">
+        <v>931</v>
+      </c>
+      <c r="K17" s="3">
+        <v>864</v>
+      </c>
+      <c r="L17" s="3">
+        <v>474867</v>
+      </c>
+      <c r="M17" s="3">
+        <v>490717</v>
+      </c>
+      <c r="N17" s="3">
+        <v>19868</v>
+      </c>
+      <c r="O17" s="3">
+        <v>20626</v>
+      </c>
+      <c r="P17" s="3">
+        <v>12199</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>12780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -985,8 +1678,44 @@
       <c r="D18" s="2">
         <v>20915</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="3">
+        <v>19348</v>
+      </c>
+      <c r="G18" s="3">
+        <v>20962</v>
+      </c>
+      <c r="H18" s="3">
+        <v>871</v>
+      </c>
+      <c r="I18" s="3">
+        <v>669</v>
+      </c>
+      <c r="J18" s="3">
+        <v>680</v>
+      </c>
+      <c r="K18" s="3">
+        <v>556</v>
+      </c>
+      <c r="L18" s="3">
+        <v>413148</v>
+      </c>
+      <c r="M18" s="3">
+        <v>448244</v>
+      </c>
+      <c r="N18" s="3">
+        <v>14793</v>
+      </c>
+      <c r="O18" s="3">
+        <v>13960</v>
+      </c>
+      <c r="P18" s="3">
+        <v>9804</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>9875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -999,8 +1728,44 @@
       <c r="D19" s="2">
         <v>12671</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="3">
+        <v>40098</v>
+      </c>
+      <c r="G19" s="3">
+        <v>40102</v>
+      </c>
+      <c r="H19" s="3">
+        <v>931</v>
+      </c>
+      <c r="I19" s="3">
+        <v>757</v>
+      </c>
+      <c r="J19" s="3">
+        <v>719</v>
+      </c>
+      <c r="K19" s="3">
+        <v>619</v>
+      </c>
+      <c r="L19" s="3">
+        <v>256597</v>
+      </c>
+      <c r="M19" s="3">
+        <v>273495</v>
+      </c>
+      <c r="N19" s="3">
+        <v>9452</v>
+      </c>
+      <c r="O19" s="3">
+        <v>8618</v>
+      </c>
+      <c r="P19" s="3">
+        <v>5716</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>5617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1013,8 +1778,44 @@
       <c r="D20" s="2">
         <v>32805</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <v>80672</v>
+      </c>
+      <c r="G20" s="3">
+        <v>85527</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2924</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2176</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1734</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1359</v>
+      </c>
+      <c r="L20" s="3">
+        <v>609048</v>
+      </c>
+      <c r="M20" s="3">
+        <v>614136</v>
+      </c>
+      <c r="N20" s="3">
+        <v>24873</v>
+      </c>
+      <c r="O20" s="3">
+        <v>23522</v>
+      </c>
+      <c r="P20" s="3">
+        <v>15184</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>14528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1027,8 +1828,44 @@
       <c r="D21" s="2">
         <v>45189</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <v>314794</v>
+      </c>
+      <c r="G21" s="3">
+        <v>328041</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14448</v>
+      </c>
+      <c r="I21" s="3">
+        <v>14386</v>
+      </c>
+      <c r="J21" s="3">
+        <v>8603</v>
+      </c>
+      <c r="K21" s="3">
+        <v>8219</v>
+      </c>
+      <c r="L21" s="3">
+        <v>531550</v>
+      </c>
+      <c r="M21" s="3">
+        <v>559616</v>
+      </c>
+      <c r="N21" s="3">
+        <v>23031</v>
+      </c>
+      <c r="O21" s="3">
+        <v>23346</v>
+      </c>
+      <c r="P21" s="3">
+        <v>14096</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>14271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1041,8 +1878,44 @@
       <c r="D22" s="2">
         <v>16863</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <v>43847</v>
+      </c>
+      <c r="G22" s="3">
+        <v>47514</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1341</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1142</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1133</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1045</v>
+      </c>
+      <c r="L22" s="3">
+        <v>288475</v>
+      </c>
+      <c r="M22" s="3">
+        <v>295623</v>
+      </c>
+      <c r="N22" s="3">
+        <v>10159</v>
+      </c>
+      <c r="O22" s="3">
+        <v>9963</v>
+      </c>
+      <c r="P22" s="3">
+        <v>7381</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>7304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1055,8 +1928,44 @@
       <c r="D23" s="2">
         <v>23288</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <v>48986</v>
+      </c>
+      <c r="G23" s="3">
+        <v>48777</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1639</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1640</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1147</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1187</v>
+      </c>
+      <c r="L23" s="3">
+        <v>452581</v>
+      </c>
+      <c r="M23" s="3">
+        <v>454011</v>
+      </c>
+      <c r="N23" s="3">
+        <v>17772</v>
+      </c>
+      <c r="O23" s="3">
+        <v>17674</v>
+      </c>
+      <c r="P23" s="3">
+        <v>10620</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>10334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1069,8 +1978,44 @@
       <c r="D24" s="2">
         <v>16260</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <v>27745</v>
+      </c>
+      <c r="G24" s="3">
+        <v>29211</v>
+      </c>
+      <c r="H24" s="3">
+        <v>777</v>
+      </c>
+      <c r="I24" s="3">
+        <v>878</v>
+      </c>
+      <c r="J24" s="3">
+        <v>626</v>
+      </c>
+      <c r="K24" s="3">
+        <v>632</v>
+      </c>
+      <c r="L24" s="3">
+        <v>268776</v>
+      </c>
+      <c r="M24" s="3">
+        <v>290737</v>
+      </c>
+      <c r="N24" s="3">
+        <v>9828</v>
+      </c>
+      <c r="O24" s="3">
+        <v>9737</v>
+      </c>
+      <c r="P24" s="3">
+        <v>7545</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>7457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1083,8 +2028,44 @@
       <c r="D25" s="2">
         <v>21665</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="3">
+        <v>48977</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45720</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1457</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1391</v>
+      </c>
+      <c r="J25" s="3">
+        <v>911</v>
+      </c>
+      <c r="K25" s="3">
+        <v>824</v>
+      </c>
+      <c r="L25" s="3">
+        <v>402517</v>
+      </c>
+      <c r="M25" s="3">
+        <v>405299</v>
+      </c>
+      <c r="N25" s="3">
+        <v>16342</v>
+      </c>
+      <c r="O25" s="3">
+        <v>15839</v>
+      </c>
+      <c r="P25" s="3">
+        <v>9858</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>10072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1097,8 +2078,44 @@
       <c r="D26" s="2">
         <v>267155</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" s="3">
+        <v>1142468</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1207984</v>
+      </c>
+      <c r="H26" s="3">
+        <v>41721</v>
+      </c>
+      <c r="I26" s="3">
+        <v>38444</v>
+      </c>
+      <c r="J26" s="3">
+        <v>27858</v>
+      </c>
+      <c r="K26" s="3">
+        <v>24754</v>
+      </c>
+      <c r="L26" s="3">
+        <v>4407792</v>
+      </c>
+      <c r="M26" s="3">
+        <v>4558526</v>
+      </c>
+      <c r="N26" s="3">
+        <v>170764</v>
+      </c>
+      <c r="O26" s="3">
+        <v>166862</v>
+      </c>
+      <c r="P26" s="3">
+        <v>107840</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>107208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1111,8 +2128,44 @@
       <c r="D27" s="2">
         <v>13810</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" s="3">
+        <v>77617</v>
+      </c>
+      <c r="G27" s="3">
+        <v>90114</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2804</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2710</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1825</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1708</v>
+      </c>
+      <c r="L27" s="3">
+        <v>254781</v>
+      </c>
+      <c r="M27" s="3">
+        <v>290514</v>
+      </c>
+      <c r="N27" s="3">
+        <v>7460</v>
+      </c>
+      <c r="O27" s="3">
+        <v>6736</v>
+      </c>
+      <c r="P27" s="3">
+        <v>5908</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1125,8 +2178,44 @@
       <c r="D28" s="2">
         <v>29651</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" s="3">
+        <v>185631</v>
+      </c>
+      <c r="G28" s="3">
+        <v>187960</v>
+      </c>
+      <c r="H28" s="3">
+        <v>6647</v>
+      </c>
+      <c r="I28" s="3">
+        <v>6110</v>
+      </c>
+      <c r="J28" s="3">
+        <v>6288</v>
+      </c>
+      <c r="K28" s="3">
+        <v>5159</v>
+      </c>
+      <c r="L28" s="3">
+        <v>495247</v>
+      </c>
+      <c r="M28" s="3">
+        <v>532051</v>
+      </c>
+      <c r="N28" s="3">
+        <v>10771</v>
+      </c>
+      <c r="O28" s="3">
+        <v>10173</v>
+      </c>
+      <c r="P28" s="3">
+        <v>9378</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>8829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1139,8 +2228,44 @@
       <c r="D29" s="2">
         <v>9693</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" s="3">
+        <v>41215</v>
+      </c>
+      <c r="G29" s="3">
+        <v>40436</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1334</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1279</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1254</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1017</v>
+      </c>
+      <c r="L29" s="3">
+        <v>181349</v>
+      </c>
+      <c r="M29" s="3">
+        <v>189158</v>
+      </c>
+      <c r="N29" s="3">
+        <v>4824</v>
+      </c>
+      <c r="O29" s="3">
+        <v>4550</v>
+      </c>
+      <c r="P29" s="3">
+        <v>3934</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1153,8 +2278,44 @@
       <c r="D30" s="2">
         <v>53157</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" s="3">
+        <v>304463</v>
+      </c>
+      <c r="G30" s="3">
+        <v>315510</v>
+      </c>
+      <c r="H30" s="3">
+        <v>10785</v>
+      </c>
+      <c r="I30" s="3">
+        <v>10099</v>
+      </c>
+      <c r="J30" s="3">
+        <v>9367</v>
+      </c>
+      <c r="K30" s="3">
+        <v>7884</v>
+      </c>
+      <c r="L30" s="3">
+        <v>31377</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1011723</v>
+      </c>
+      <c r="N30" s="3">
+        <v>28055</v>
+      </c>
+      <c r="O30" s="3">
+        <v>21459</v>
+      </c>
+      <c r="P30" s="3">
+        <v>10220</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>16686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1167,8 +2328,44 @@
       <c r="D31" s="2">
         <v>59875</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="3">
+        <v>143703</v>
+      </c>
+      <c r="G31" s="3">
+        <v>134889</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4847</v>
+      </c>
+      <c r="I31" s="3">
+        <v>4250</v>
+      </c>
+      <c r="J31" s="3">
+        <v>4050</v>
+      </c>
+      <c r="K31" s="3">
+        <v>3204</v>
+      </c>
+      <c r="L31" s="3">
+        <v>988960</v>
+      </c>
+      <c r="M31" s="3">
+        <v>942075</v>
+      </c>
+      <c r="N31" s="3">
+        <v>39104</v>
+      </c>
+      <c r="O31" s="3">
+        <v>36370</v>
+      </c>
+      <c r="P31" s="3">
+        <v>27253</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>25368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1181,8 +2378,44 @@
       <c r="D32" s="2">
         <v>64332</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="3">
+        <v>73159</v>
+      </c>
+      <c r="G32" s="3">
+        <v>69424</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3241</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2891</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2690</v>
+      </c>
+      <c r="K32" s="3">
+        <v>2177</v>
+      </c>
+      <c r="L32" s="3">
+        <v>811361</v>
+      </c>
+      <c r="M32" s="3">
+        <v>948758</v>
+      </c>
+      <c r="N32" s="3">
+        <v>39756</v>
+      </c>
+      <c r="O32" s="3">
+        <v>37139</v>
+      </c>
+      <c r="P32" s="3">
+        <v>30351</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>29114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1195,8 +2428,44 @@
       <c r="D33" s="2">
         <v>46126</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="3">
+        <v>32187</v>
+      </c>
+      <c r="G33" s="3">
+        <v>32143</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1143</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1052</v>
+      </c>
+      <c r="J33" s="3">
+        <v>847</v>
+      </c>
+      <c r="K33" s="3">
+        <v>766</v>
+      </c>
+      <c r="L33" s="3">
+        <v>682563</v>
+      </c>
+      <c r="M33" s="3">
+        <v>750091</v>
+      </c>
+      <c r="N33" s="3">
+        <v>29760</v>
+      </c>
+      <c r="O33" s="3">
+        <v>28192</v>
+      </c>
+      <c r="P33" s="3">
+        <v>22995</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>21518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1209,8 +2478,44 @@
       <c r="D34" s="2">
         <v>111833</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="3">
+        <v>71810</v>
+      </c>
+      <c r="G34" s="3">
+        <v>65654</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2511</v>
+      </c>
+      <c r="I34" s="3">
+        <v>2318</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2025</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1798</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1535652</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1505536</v>
+      </c>
+      <c r="N34" s="3">
+        <v>84763</v>
+      </c>
+      <c r="O34" s="3">
+        <v>80849</v>
+      </c>
+      <c r="P34" s="3">
+        <v>54790</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>53220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1223,8 +2528,44 @@
       <c r="D35" s="2">
         <v>133427</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="3">
+        <v>52593</v>
+      </c>
+      <c r="G35" s="3">
+        <v>52753</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1844</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1758</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1514</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1332</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1644415</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1720768</v>
+      </c>
+      <c r="N35" s="3">
+        <v>85276</v>
+      </c>
+      <c r="O35" s="3">
+        <v>81176</v>
+      </c>
+      <c r="P35" s="3">
+        <v>66823</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>63758</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1237,8 +2578,44 @@
       <c r="D36" s="2">
         <v>84561</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" s="3">
+        <v>215474</v>
+      </c>
+      <c r="G36" s="3">
+        <v>187783</v>
+      </c>
+      <c r="H36" s="3">
+        <v>7972</v>
+      </c>
+      <c r="I36" s="3">
+        <v>7552</v>
+      </c>
+      <c r="J36" s="3">
+        <v>5816</v>
+      </c>
+      <c r="K36" s="3">
+        <v>4656</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1250221</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1142918</v>
+      </c>
+      <c r="N36" s="3">
+        <v>63594</v>
+      </c>
+      <c r="O36" s="3">
+        <v>61084</v>
+      </c>
+      <c r="P36" s="3">
+        <v>36975</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>35114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1251,8 +2628,44 @@
       <c r="D37" s="2">
         <v>71647</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" s="3">
+        <v>114818</v>
+      </c>
+      <c r="G37" s="3">
+        <v>120530</v>
+      </c>
+      <c r="H37" s="3">
+        <v>4285</v>
+      </c>
+      <c r="I37" s="3">
+        <v>4176</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3702</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3460</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1128586</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1130424</v>
+      </c>
+      <c r="N37" s="3">
+        <v>50961</v>
+      </c>
+      <c r="O37" s="3">
+        <v>50486</v>
+      </c>
+      <c r="P37" s="3">
+        <v>33111</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>31374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1265,8 +2678,44 @@
       <c r="D38" s="2">
         <v>57069</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="3">
+        <v>48100</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45490</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1636</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1470</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1702</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1482</v>
+      </c>
+      <c r="L38" s="3">
+        <v>578075</v>
+      </c>
+      <c r="M38" s="3">
+        <v>667522</v>
+      </c>
+      <c r="N38" s="3">
+        <v>32013</v>
+      </c>
+      <c r="O38" s="3">
+        <v>31083</v>
+      </c>
+      <c r="P38" s="3">
+        <v>27294</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>26591</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1279,8 +2728,44 @@
       <c r="D39" s="2">
         <v>55360</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="3">
+        <v>45018</v>
+      </c>
+      <c r="G39" s="3">
+        <v>46805</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1302</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1155</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1098</v>
+      </c>
+      <c r="K39" s="3">
+        <v>964</v>
+      </c>
+      <c r="L39" s="3">
+        <v>703800</v>
+      </c>
+      <c r="M39" s="3">
+        <v>808342</v>
+      </c>
+      <c r="N39" s="3">
+        <v>33837</v>
+      </c>
+      <c r="O39" s="3">
+        <v>32507</v>
+      </c>
+      <c r="P39" s="3">
+        <v>27107</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>26191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1293,8 +2778,44 @@
       <c r="D40" s="2">
         <v>86244</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
+        <v>90245</v>
+      </c>
+      <c r="G40" s="3">
+        <v>99574</v>
+      </c>
+      <c r="H40" s="3">
+        <v>3148</v>
+      </c>
+      <c r="I40" s="3">
+        <v>3343</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2217</v>
+      </c>
+      <c r="K40" s="3">
+        <v>2302</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1372527</v>
+      </c>
+      <c r="M40" s="3">
+        <v>1115426</v>
+      </c>
+      <c r="N40" s="3">
+        <v>67036</v>
+      </c>
+      <c r="O40" s="3">
+        <v>63163</v>
+      </c>
+      <c r="P40" s="3">
+        <v>46741</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>34984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1307,8 +2828,44 @@
       <c r="D41" s="2">
         <v>66081</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="3">
+        <v>61973</v>
+      </c>
+      <c r="G41" s="3">
+        <v>51016</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2698</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2521</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2270</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1979</v>
+      </c>
+      <c r="L41" s="3">
+        <v>737653</v>
+      </c>
+      <c r="M41" s="3">
+        <v>789840</v>
+      </c>
+      <c r="N41" s="3">
+        <v>35833</v>
+      </c>
+      <c r="O41" s="3">
+        <v>34188</v>
+      </c>
+      <c r="P41" s="3">
+        <v>32255</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>29577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1321,8 +2878,44 @@
       <c r="D42" s="2">
         <v>32046</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="3">
+        <v>701440</v>
+      </c>
+      <c r="G42" s="3">
+        <v>573848</v>
+      </c>
+      <c r="H42" s="3">
+        <v>20541</v>
+      </c>
+      <c r="I42" s="3">
+        <v>19779</v>
+      </c>
+      <c r="J42" s="3">
+        <v>17687</v>
+      </c>
+      <c r="K42" s="3">
+        <v>14359</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1335,8 +2928,44 @@
       <c r="D43" s="2">
         <v>65747</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="3">
+        <v>65553</v>
+      </c>
+      <c r="G43" s="3">
+        <v>64694</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3298</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3086</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2586</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2212</v>
+      </c>
+      <c r="L43" s="3">
+        <v>818621</v>
+      </c>
+      <c r="M43" s="3">
+        <v>888687</v>
+      </c>
+      <c r="N43" s="3">
+        <v>42858</v>
+      </c>
+      <c r="O43" s="3">
+        <v>40546</v>
+      </c>
+      <c r="P43" s="3">
+        <v>31460</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>29489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1349,8 +2978,44 @@
       <c r="D44" s="2">
         <v>49375</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" s="3">
+        <v>47644</v>
+      </c>
+      <c r="G44" s="3">
+        <v>47296</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1449</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1356</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1628</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1306</v>
+      </c>
+      <c r="L44" s="3">
+        <v>708544</v>
+      </c>
+      <c r="M44" s="3">
+        <v>739214</v>
+      </c>
+      <c r="N44" s="3">
+        <v>27289</v>
+      </c>
+      <c r="O44" s="3">
+        <v>25866</v>
+      </c>
+      <c r="P44" s="3">
+        <v>24064</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>22377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1363,8 +3028,44 @@
       <c r="D45" s="2">
         <v>13905</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" s="3">
+        <v>13626</v>
+      </c>
+      <c r="G45" s="3">
+        <v>14376</v>
+      </c>
+      <c r="H45" s="3">
+        <v>544</v>
+      </c>
+      <c r="I45" s="3">
+        <v>505</v>
+      </c>
+      <c r="J45" s="3">
+        <v>526</v>
+      </c>
+      <c r="K45" s="3">
+        <v>490</v>
+      </c>
+      <c r="L45" s="3">
+        <v>185157</v>
+      </c>
+      <c r="M45" s="3">
+        <v>195522</v>
+      </c>
+      <c r="N45" s="3">
+        <v>7754</v>
+      </c>
+      <c r="O45" s="3">
+        <v>7541</v>
+      </c>
+      <c r="P45" s="3">
+        <v>6543</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>6346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1377,8 +3078,44 @@
       <c r="D46" s="2">
         <v>88783</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="3">
+        <v>155455</v>
+      </c>
+      <c r="G46" s="3">
+        <v>118052</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4456</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3808</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4065</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3434</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1036577</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1036406</v>
+      </c>
+      <c r="N46" s="3">
+        <v>53568</v>
+      </c>
+      <c r="O46" s="3">
+        <v>51378</v>
+      </c>
+      <c r="P46" s="3">
+        <v>42267</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>39017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1391,8 +3128,44 @@
       <c r="D47" s="2">
         <v>65018</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" s="3">
+        <v>73600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>69127</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3364</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3263</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2883</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2442</v>
+      </c>
+      <c r="L47" s="3">
+        <v>793979</v>
+      </c>
+      <c r="M47" s="3">
+        <v>820516</v>
+      </c>
+      <c r="N47" s="3">
+        <v>41165</v>
+      </c>
+      <c r="O47" s="3">
+        <v>38758</v>
+      </c>
+      <c r="P47" s="3">
+        <v>30989</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>28704</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1405,8 +3178,44 @@
       <c r="D48" s="2">
         <v>127405</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" s="3">
+        <v>86910</v>
+      </c>
+      <c r="G48" s="3">
+        <v>91900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3331</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3354</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3435</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2965</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1572300</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N48" s="3">
+        <v>85589</v>
+      </c>
+      <c r="O48" s="3">
+        <v>81734</v>
+      </c>
+      <c r="P48" s="3">
+        <v>62554</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>58451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1419,8 +3228,44 @@
       <c r="D49" s="2">
         <v>82536</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="3">
+        <v>145454</v>
+      </c>
+      <c r="G49" s="3">
+        <v>144644</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5671</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5428</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4348</v>
+      </c>
+      <c r="K49" s="3">
+        <v>3578</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1492906</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1494061</v>
+      </c>
+      <c r="N49" s="3">
+        <v>59074</v>
+      </c>
+      <c r="O49" s="3">
+        <v>55861</v>
+      </c>
+      <c r="P49" s="3">
+        <v>38500</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>36110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1433,8 +3278,44 @@
       <c r="D50" s="2">
         <v>38315</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="3">
+        <v>39695</v>
+      </c>
+      <c r="G50" s="3">
+        <v>39698</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1994</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1824</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1705</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1423</v>
+      </c>
+      <c r="L50" s="3">
+        <v>578441</v>
+      </c>
+      <c r="M50" s="3">
+        <v>614939</v>
+      </c>
+      <c r="N50" s="3">
+        <v>23549</v>
+      </c>
+      <c r="O50" s="3">
+        <v>21397</v>
+      </c>
+      <c r="P50" s="3">
+        <v>18265</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>16922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1447,8 +3328,44 @@
       <c r="D51" s="2">
         <v>73196</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="3">
+        <v>71366</v>
+      </c>
+      <c r="G51" s="3">
+        <v>63854</v>
+      </c>
+      <c r="H51" s="3">
+        <v>3153</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2960</v>
+      </c>
+      <c r="J51" s="3">
+        <v>2784</v>
+      </c>
+      <c r="K51" s="3">
+        <v>2428</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1085780</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1100631</v>
+      </c>
+      <c r="N51" s="3">
+        <v>47759</v>
+      </c>
+      <c r="O51" s="3">
+        <v>45673</v>
+      </c>
+      <c r="P51" s="3">
+        <v>34713</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>33271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1461,8 +3378,44 @@
       <c r="D52" s="2">
         <v>119497</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="3">
+        <v>84742</v>
+      </c>
+      <c r="G52" s="3">
+        <v>89043</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5209</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5139</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4795</v>
+      </c>
+      <c r="K52" s="3">
+        <v>3720</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1539971</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1538724</v>
+      </c>
+      <c r="N52" s="3">
+        <v>91191</v>
+      </c>
+      <c r="O52" s="3">
+        <v>87524</v>
+      </c>
+      <c r="P52" s="3">
+        <v>57434</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>53548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1475,8 +3428,44 @@
       <c r="D53" s="2">
         <v>32245</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" s="3">
+        <v>172716</v>
+      </c>
+      <c r="G53" s="3">
+        <v>126441</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L53" s="3">
+        <v>410928</v>
+      </c>
+      <c r="M53" s="3">
+        <v>390155</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1489,8 +3478,44 @@
       <c r="D54" s="2">
         <v>35205</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" s="3">
+        <v>758003</v>
+      </c>
+      <c r="G54" s="3">
+        <v>632997</v>
+      </c>
+      <c r="H54" s="3">
+        <v>21021</v>
+      </c>
+      <c r="I54" s="3">
+        <v>20336</v>
+      </c>
+      <c r="J54" s="3">
+        <v>19854</v>
+      </c>
+      <c r="K54" s="3">
+        <v>15351</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1503,8 +3528,44 @@
       <c r="D55" s="2">
         <v>96081</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" s="3">
+        <v>211117</v>
+      </c>
+      <c r="G55" s="3">
+        <v>228904</v>
+      </c>
+      <c r="H55" s="3">
+        <v>9517</v>
+      </c>
+      <c r="I55" s="3">
+        <v>9038</v>
+      </c>
+      <c r="J55" s="3">
+        <v>8015</v>
+      </c>
+      <c r="K55" s="3">
+        <v>6849</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1211797</v>
+      </c>
+      <c r="M55" s="3">
+        <v>1244297</v>
+      </c>
+      <c r="N55" s="3">
+        <v>64616</v>
+      </c>
+      <c r="O55" s="3">
+        <v>62758</v>
+      </c>
+      <c r="P55" s="3">
+        <v>41943</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>39274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1517,8 +3578,44 @@
       <c r="D56" s="2">
         <v>62147</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="3">
+        <v>62315</v>
+      </c>
+      <c r="G56" s="3">
+        <v>64697</v>
+      </c>
+      <c r="H56" s="3">
+        <v>3145</v>
+      </c>
+      <c r="I56" s="3">
+        <v>3146</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2626</v>
+      </c>
+      <c r="K56" s="3">
+        <v>2218</v>
+      </c>
+      <c r="L56" s="3">
+        <v>802224</v>
+      </c>
+      <c r="M56" s="3">
+        <v>824053</v>
+      </c>
+      <c r="N56" s="3">
+        <v>45301</v>
+      </c>
+      <c r="O56" s="3">
+        <v>42847</v>
+      </c>
+      <c r="P56" s="3">
+        <v>29443</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>27860</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1531,8 +3628,44 @@
       <c r="D57" s="2">
         <v>67061</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="3">
+        <v>90234</v>
+      </c>
+      <c r="G57" s="3">
+        <v>73728</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2341</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2210</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2159</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1873</v>
+      </c>
+      <c r="L57" s="3">
+        <v>842496</v>
+      </c>
+      <c r="M57" s="3">
+        <v>827445</v>
+      </c>
+      <c r="N57" s="3">
+        <v>40718</v>
+      </c>
+      <c r="O57" s="3">
+        <v>37983</v>
+      </c>
+      <c r="P57" s="3">
+        <v>32529</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1545,8 +3678,44 @@
       <c r="D58" s="2">
         <v>43892</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="3">
+        <v>132218</v>
+      </c>
+      <c r="G58" s="3">
+        <v>111368</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5869</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4744</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3118</v>
+      </c>
+      <c r="K58" s="3">
+        <v>3787</v>
+      </c>
+      <c r="L58" s="3">
+        <v>702101</v>
+      </c>
+      <c r="M58" s="3">
+        <v>664841</v>
+      </c>
+      <c r="N58" s="3">
+        <v>82719</v>
+      </c>
+      <c r="O58" s="3">
+        <v>30519</v>
+      </c>
+      <c r="P58" s="3">
+        <v>17925</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>19062</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1559,8 +3728,44 @@
       <c r="D59" s="2">
         <v>1564</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" s="3">
+        <v>43720</v>
+      </c>
+      <c r="G59" s="3">
+        <v>19870</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1573,8 +3778,44 @@
       <c r="D60" s="2">
         <v>104514</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" s="3">
+        <v>115244</v>
+      </c>
+      <c r="G60" s="3">
+        <v>110102</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5587</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5322</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4502</v>
+      </c>
+      <c r="K60" s="3">
+        <v>4096</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1543793</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1558983</v>
+      </c>
+      <c r="N60" s="3">
+        <v>75629</v>
+      </c>
+      <c r="O60" s="3">
+        <v>73127</v>
+      </c>
+      <c r="P60" s="3">
+        <v>49324</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>46592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1587,8 +3828,44 @@
       <c r="D61" s="2">
         <v>74232</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="3">
+        <v>79925</v>
+      </c>
+      <c r="G61" s="3">
+        <v>80288</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2041</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1983</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1640</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1528</v>
+      </c>
+      <c r="L61" s="3">
+        <v>896704</v>
+      </c>
+      <c r="M61" s="3">
+        <v>1085125</v>
+      </c>
+      <c r="N61" s="3">
+        <v>43717</v>
+      </c>
+      <c r="O61" s="3">
+        <v>42289</v>
+      </c>
+      <c r="P61" s="3">
+        <v>36826</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>34238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1601,8 +3878,44 @@
       <c r="D62" s="2">
         <v>69227</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1615,8 +3928,44 @@
       <c r="D63" s="2">
         <v>86214</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="3">
+        <v>84166</v>
+      </c>
+      <c r="G63" s="3">
+        <v>70997</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3783</v>
+      </c>
+      <c r="I63" s="3">
+        <v>3649</v>
+      </c>
+      <c r="J63" s="3">
+        <v>2718</v>
+      </c>
+      <c r="K63" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L63" s="3">
+        <v>1194478</v>
+      </c>
+      <c r="M63" s="3">
+        <v>1298638</v>
+      </c>
+      <c r="N63" s="3">
+        <v>67738</v>
+      </c>
+      <c r="O63" s="3">
+        <v>64780</v>
+      </c>
+      <c r="P63" s="3">
+        <v>41132</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>39964</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1629,8 +3978,44 @@
       <c r="D64" s="2">
         <v>86314</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="3">
+        <v>174051</v>
+      </c>
+      <c r="H64" s="3">
+        <v>7521</v>
+      </c>
+      <c r="I64" s="3">
+        <v>7520</v>
+      </c>
+      <c r="J64" s="3">
+        <v>6134</v>
+      </c>
+      <c r="K64" s="3">
+        <v>5450</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1325024</v>
+      </c>
+      <c r="M64" s="3">
+        <v>1276671</v>
+      </c>
+      <c r="N64" s="3">
+        <v>56755</v>
+      </c>
+      <c r="O64" s="3">
+        <v>53395</v>
+      </c>
+      <c r="P64" s="3">
+        <v>38313</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>36417</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1643,8 +4028,44 @@
       <c r="D65" s="2">
         <v>76007</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="3">
+        <v>105225</v>
+      </c>
+      <c r="G65" s="3">
+        <v>102204</v>
+      </c>
+      <c r="H65" s="3">
+        <v>3781</v>
+      </c>
+      <c r="I65" s="3">
+        <v>3605</v>
+      </c>
+      <c r="J65" s="3">
+        <v>3120</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2757</v>
+      </c>
+      <c r="L65" s="3">
+        <v>1245667</v>
+      </c>
+      <c r="M65" s="3">
+        <v>1217671</v>
+      </c>
+      <c r="N65" s="3">
+        <v>52054</v>
+      </c>
+      <c r="O65" s="3">
+        <v>49258</v>
+      </c>
+      <c r="P65" s="3">
+        <v>36744</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>33386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1657,8 +4078,44 @@
       <c r="D66" s="2">
         <v>2783</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" s="3">
+        <v>48997</v>
+      </c>
+      <c r="G66" s="3">
+        <v>47109</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2020</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1971</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1487</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1296</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1671,8 +4128,44 @@
       <c r="D67" s="2">
         <v>1185</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" s="3">
+        <v>264645</v>
+      </c>
+      <c r="G67" s="3">
+        <v>211134</v>
+      </c>
+      <c r="H67" s="3">
+        <v>6677</v>
+      </c>
+      <c r="I67" s="3">
+        <v>6240</v>
+      </c>
+      <c r="J67" s="3">
+        <v>6860</v>
+      </c>
+      <c r="K67" s="3">
+        <v>4096</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1685,8 +4178,44 @@
       <c r="D68" s="2">
         <v>73801</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" s="3">
+        <v>118112</v>
+      </c>
+      <c r="G68" s="3">
+        <v>116542</v>
+      </c>
+      <c r="H68" s="3">
+        <v>4121</v>
+      </c>
+      <c r="I68" s="3">
+        <v>3647</v>
+      </c>
+      <c r="J68" s="3">
+        <v>2910</v>
+      </c>
+      <c r="K68" s="3">
+        <v>2445</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1238444</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1228633</v>
+      </c>
+      <c r="N68" s="3">
+        <v>53867</v>
+      </c>
+      <c r="O68" s="3">
+        <v>50807</v>
+      </c>
+      <c r="P68" s="3">
+        <v>35105</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>33041</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1699,8 +4228,44 @@
       <c r="D69" s="2">
         <v>36078</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" s="3">
+        <v>78661</v>
+      </c>
+      <c r="G69" s="3">
+        <v>77800</v>
+      </c>
+      <c r="H69" s="3">
+        <v>3478</v>
+      </c>
+      <c r="I69" s="3">
+        <v>3363</v>
+      </c>
+      <c r="J69" s="3">
+        <v>3063</v>
+      </c>
+      <c r="K69" s="3">
+        <v>2516</v>
+      </c>
+      <c r="L69" s="3">
+        <v>510421</v>
+      </c>
+      <c r="M69" s="3">
+        <v>569041</v>
+      </c>
+      <c r="N69" s="3">
+        <v>19559</v>
+      </c>
+      <c r="O69" s="3">
+        <v>18866</v>
+      </c>
+      <c r="P69" s="3">
+        <v>15186</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>15311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1713,8 +4278,44 @@
       <c r="D70" s="2">
         <v>2551299</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" s="3">
+        <v>4960736</v>
+      </c>
+      <c r="G70" s="3">
+        <v>4170825</v>
+      </c>
+      <c r="H70" s="3">
+        <v>168544</v>
+      </c>
+      <c r="I70" s="3">
+        <v>159761</v>
+      </c>
+      <c r="J70" s="3">
+        <v>142575</v>
+      </c>
+      <c r="K70" s="3">
+        <v>120039</v>
+      </c>
+      <c r="L70" s="3">
+        <v>33163166</v>
+      </c>
+      <c r="M70" s="3">
+        <v>83820150</v>
+      </c>
+      <c r="N70" s="3">
+        <v>1594402</v>
+      </c>
+      <c r="O70" s="3">
+        <v>1519144</v>
+      </c>
+      <c r="P70" s="3">
+        <v>1128956</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>1056689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1727,8 +4328,44 @@
       <c r="D71" s="2">
         <v>102139</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G71" s="3">
+        <v>12497</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1332893</v>
+      </c>
+      <c r="M71" s="3">
+        <v>1285820</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1741,8 +4378,44 @@
       <c r="D72" s="2">
         <v>3668134</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" s="3">
+        <v>7967781</v>
+      </c>
+      <c r="G72" s="3">
+        <v>7504265</v>
+      </c>
+      <c r="H72" s="3">
+        <v>271615</v>
+      </c>
+      <c r="I72" s="3">
+        <v>252638</v>
+      </c>
+      <c r="J72" s="3">
+        <v>215701</v>
+      </c>
+      <c r="K72" s="3">
+        <v>182696</v>
+      </c>
+      <c r="L72" s="3">
+        <v>51805207</v>
+      </c>
+      <c r="M72" s="3">
+        <v>52239052</v>
+      </c>
+      <c r="N72" s="3">
+        <v>2269521</v>
+      </c>
+      <c r="O72" s="3">
+        <v>2157977</v>
+      </c>
+      <c r="P72" s="3">
+        <v>1582135</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>1482424</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1755,8 +4428,44 @@
       <c r="D73" s="2">
         <v>21661</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" s="3">
+        <v>166165</v>
+      </c>
+      <c r="G73" s="3">
+        <v>106196</v>
+      </c>
+      <c r="H73" s="3">
+        <v>2916</v>
+      </c>
+      <c r="I73" s="3">
+        <v>2609</v>
+      </c>
+      <c r="J73" s="3">
+        <v>2847</v>
+      </c>
+      <c r="K73" s="3">
+        <v>2264</v>
+      </c>
+      <c r="L73" s="3">
+        <v>475857</v>
+      </c>
+      <c r="M73" s="3">
+        <v>374918</v>
+      </c>
+      <c r="N73" s="3">
+        <v>12623</v>
+      </c>
+      <c r="O73" s="3">
+        <v>12278</v>
+      </c>
+      <c r="P73" s="3">
+        <v>9989</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1769,8 +4478,44 @@
       <c r="D74" s="2">
         <v>1841</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1783,8 +4528,44 @@
       <c r="D75" s="2">
         <v>16158</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" s="3">
+        <v>5876</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3703</v>
+      </c>
+      <c r="H75" s="3">
+        <v>173</v>
+      </c>
+      <c r="I75" s="3">
+        <v>179</v>
+      </c>
+      <c r="J75" s="3">
+        <v>142</v>
+      </c>
+      <c r="K75" s="3">
+        <v>100</v>
+      </c>
+      <c r="L75" s="3">
+        <v>892020</v>
+      </c>
+      <c r="M75" s="3">
+        <v>311886</v>
+      </c>
+      <c r="N75" s="3">
+        <v>9078</v>
+      </c>
+      <c r="O75" s="3">
+        <v>8071</v>
+      </c>
+      <c r="P75" s="3">
+        <v>8776</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -1797,8 +4578,44 @@
       <c r="D76" s="2">
         <v>15477</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1811,8 +4628,44 @@
       <c r="D77" s="2">
         <v>5253</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" s="3">
+        <v>12062</v>
+      </c>
+      <c r="G77" s="3">
+        <v>10140</v>
+      </c>
+      <c r="H77" s="3">
+        <v>498</v>
+      </c>
+      <c r="I77" s="3">
+        <v>448</v>
+      </c>
+      <c r="J77" s="3">
+        <v>325</v>
+      </c>
+      <c r="K77" s="3">
+        <v>252</v>
+      </c>
+      <c r="L77" s="3">
+        <v>164230</v>
+      </c>
+      <c r="M77" s="3">
+        <v>151446</v>
+      </c>
+      <c r="N77" s="3">
+        <v>5123</v>
+      </c>
+      <c r="O77" s="3">
+        <v>4712</v>
+      </c>
+      <c r="P77" s="3">
+        <v>2408</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1825,8 +4678,44 @@
       <c r="D78" s="2">
         <v>74578</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" s="3">
+        <v>92177</v>
+      </c>
+      <c r="G78" s="3">
+        <v>85607</v>
+      </c>
+      <c r="H78" s="3">
+        <v>4456</v>
+      </c>
+      <c r="I78" s="3">
+        <v>4465</v>
+      </c>
+      <c r="J78" s="3">
+        <v>3381</v>
+      </c>
+      <c r="K78" s="3">
+        <v>2912</v>
+      </c>
+      <c r="L78" s="3">
+        <v>1075863</v>
+      </c>
+      <c r="M78" s="3">
+        <v>1055279</v>
+      </c>
+      <c r="N78" s="3">
+        <v>60606</v>
+      </c>
+      <c r="O78" s="3">
+        <v>56877</v>
+      </c>
+      <c r="P78" s="3">
+        <v>35972</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>32313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1839,8 +4728,44 @@
       <c r="D79" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" s="3">
+        <v>36134</v>
+      </c>
+      <c r="G79" s="3">
+        <v>21386</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L79" s="3">
+        <v>428235</v>
+      </c>
+      <c r="M79" s="3">
+        <v>393703</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1853,8 +4778,44 @@
       <c r="D80" s="2">
         <v>38927</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80" s="3">
+        <v>25701</v>
+      </c>
+      <c r="G80" s="3">
+        <v>24742</v>
+      </c>
+      <c r="H80" s="3">
+        <v>997</v>
+      </c>
+      <c r="I80" s="3">
+        <v>888</v>
+      </c>
+      <c r="J80" s="3">
+        <v>635</v>
+      </c>
+      <c r="K80" s="3">
+        <v>511</v>
+      </c>
+      <c r="L80" s="3">
+        <v>522711</v>
+      </c>
+      <c r="M80" s="3">
+        <v>503721</v>
+      </c>
+      <c r="N80" s="3">
+        <v>31300</v>
+      </c>
+      <c r="O80" s="3">
+        <v>29825</v>
+      </c>
+      <c r="P80" s="3">
+        <v>19341</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>18437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1867,8 +4828,44 @@
       <c r="D81" s="2">
         <v>26029</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" s="3">
+        <v>78586</v>
+      </c>
+      <c r="G81" s="3">
+        <v>67162</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3441</v>
+      </c>
+      <c r="I81" s="3">
+        <v>3385</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2440</v>
+      </c>
+      <c r="K81" s="3">
+        <v>2075</v>
+      </c>
+      <c r="L81" s="3">
+        <v>456374</v>
+      </c>
+      <c r="M81" s="3">
+        <v>423180</v>
+      </c>
+      <c r="N81" s="3">
+        <v>16872</v>
+      </c>
+      <c r="O81" s="3">
+        <v>15710</v>
+      </c>
+      <c r="P81" s="3">
+        <v>11426</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>10088</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1881,8 +4878,44 @@
       <c r="D82" s="2">
         <v>20778</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" s="3">
+        <v>170706</v>
+      </c>
+      <c r="G82" s="3">
+        <v>124530</v>
+      </c>
+      <c r="H82" s="3">
+        <v>3142</v>
+      </c>
+      <c r="I82" s="3">
+        <v>4895</v>
+      </c>
+      <c r="J82" s="3">
+        <v>2755</v>
+      </c>
+      <c r="K82" s="3">
+        <v>2396</v>
+      </c>
+      <c r="L82" s="3">
+        <v>436324</v>
+      </c>
+      <c r="M82" s="3">
+        <v>377503</v>
+      </c>
+      <c r="N82" s="3">
+        <v>18128</v>
+      </c>
+      <c r="O82" s="3">
+        <v>14393</v>
+      </c>
+      <c r="P82" s="3">
+        <v>8634</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>8998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1895,8 +4928,44 @@
       <c r="D83" s="2">
         <v>1841</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83" s="3">
+        <v>34632</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H83" s="3">
+        <v>932</v>
+      </c>
+      <c r="I83" s="3">
+        <v>957</v>
+      </c>
+      <c r="J83" s="3">
+        <v>551</v>
+      </c>
+      <c r="K83" s="3">
+        <v>450</v>
+      </c>
+      <c r="L83" s="3">
+        <v>31845</v>
+      </c>
+      <c r="M83" s="3">
+        <v>23030</v>
+      </c>
+      <c r="N83" s="3">
+        <v>967</v>
+      </c>
+      <c r="O83" s="3">
+        <v>851</v>
+      </c>
+      <c r="P83" s="3">
+        <v>501</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1909,8 +4978,44 @@
       <c r="D84" s="2">
         <v>21653</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84" s="3">
+        <v>47506</v>
+      </c>
+      <c r="G84" s="3">
+        <v>33263</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1405</v>
+      </c>
+      <c r="I84" s="3">
+        <v>1344</v>
+      </c>
+      <c r="J84" s="3">
+        <v>1258</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1061</v>
+      </c>
+      <c r="L84" s="3">
+        <v>398637</v>
+      </c>
+      <c r="M84" s="3">
+        <v>358669</v>
+      </c>
+      <c r="N84" s="3">
+        <v>13888</v>
+      </c>
+      <c r="O84" s="3">
+        <v>12232</v>
+      </c>
+      <c r="P84" s="3">
+        <v>9909</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>9425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -1923,8 +5028,44 @@
       <c r="D85" s="2">
         <v>244196</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85" s="3">
+        <v>669547</v>
+      </c>
+      <c r="G85" s="3">
+        <v>498889</v>
+      </c>
+      <c r="H85" s="3">
+        <v>17960</v>
+      </c>
+      <c r="I85" s="3">
+        <v>19170</v>
+      </c>
+      <c r="J85" s="3">
+        <v>14334</v>
+      </c>
+      <c r="K85" s="3">
+        <v>12024</v>
+      </c>
+      <c r="L85" s="3">
+        <v>4321096</v>
+      </c>
+      <c r="M85" s="3">
+        <v>3978337</v>
+      </c>
+      <c r="N85" s="3">
+        <v>168581</v>
+      </c>
+      <c r="O85" s="3">
+        <v>154803</v>
+      </c>
+      <c r="P85" s="3">
+        <v>106956</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>93564</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -1937,8 +5078,44 @@
       <c r="D86" s="2">
         <v>3505</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86" s="3">
+        <v>20596</v>
+      </c>
+      <c r="G86" s="3">
+        <v>17290</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1002</v>
+      </c>
+      <c r="I86" s="3">
+        <v>827</v>
+      </c>
+      <c r="J86" s="3">
+        <v>553</v>
+      </c>
+      <c r="K86" s="3">
+        <v>455</v>
+      </c>
+      <c r="L86" s="3">
+        <v>55908</v>
+      </c>
+      <c r="M86" s="3">
+        <v>36238</v>
+      </c>
+      <c r="N86" s="3">
+        <v>2658</v>
+      </c>
+      <c r="O86" s="3">
+        <v>2143</v>
+      </c>
+      <c r="P86" s="3">
+        <v>1855</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -1951,8 +5128,44 @@
       <c r="D87" s="2">
         <v>26616</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87" s="3">
+        <v>42716</v>
+      </c>
+      <c r="G87" s="3">
+        <v>36850</v>
+      </c>
+      <c r="H87" s="3">
+        <v>1535</v>
+      </c>
+      <c r="I87" s="3">
+        <v>1541</v>
+      </c>
+      <c r="J87" s="3">
+        <v>2002</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1432</v>
+      </c>
+      <c r="L87" s="3">
+        <v>339017</v>
+      </c>
+      <c r="M87" s="3">
+        <v>307732</v>
+      </c>
+      <c r="N87" s="3">
+        <v>15288</v>
+      </c>
+      <c r="O87" s="3">
+        <v>14396</v>
+      </c>
+      <c r="P87" s="3">
+        <v>12124</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>11058</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -1965,8 +5178,44 @@
       <c r="D88" s="2">
         <v>21004</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88" s="3">
+        <v>42688</v>
+      </c>
+      <c r="G88" s="3">
+        <v>28428</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1299</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1267</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1390</v>
+      </c>
+      <c r="K88" s="3">
+        <v>994</v>
+      </c>
+      <c r="L88" s="3">
+        <v>353980</v>
+      </c>
+      <c r="M88" s="3">
+        <v>339362</v>
+      </c>
+      <c r="N88" s="3">
+        <v>11294</v>
+      </c>
+      <c r="O88" s="3">
+        <v>10057</v>
+      </c>
+      <c r="P88" s="3">
+        <v>9485</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>9135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -1979,8 +5228,44 @@
       <c r="D89" s="2">
         <v>21790</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89" s="3">
+        <v>44483</v>
+      </c>
+      <c r="G89" s="3">
+        <v>42418</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2067</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2211</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1854</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1770</v>
+      </c>
+      <c r="L89" s="3">
+        <v>269894</v>
+      </c>
+      <c r="M89" s="3">
+        <v>237212</v>
+      </c>
+      <c r="N89" s="3">
+        <v>10936</v>
+      </c>
+      <c r="O89" s="3">
+        <v>10454</v>
+      </c>
+      <c r="P89" s="3">
+        <v>9466</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -1993,8 +5278,44 @@
       <c r="D90" s="2">
         <v>4269</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90" s="3">
+        <v>45464</v>
+      </c>
+      <c r="G90" s="3">
+        <v>15026</v>
+      </c>
+      <c r="H90" s="3">
+        <v>850</v>
+      </c>
+      <c r="I90" s="3">
+        <v>804</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1029</v>
+      </c>
+      <c r="K90" s="3">
+        <v>399</v>
+      </c>
+      <c r="L90" s="3">
+        <v>99224</v>
+      </c>
+      <c r="M90" s="3">
+        <v>80256</v>
+      </c>
+      <c r="N90" s="3">
+        <v>3521</v>
+      </c>
+      <c r="O90" s="3">
+        <v>3291</v>
+      </c>
+      <c r="P90" s="3">
+        <v>1491</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2007,8 +5328,44 @@
       <c r="D91" s="2">
         <v>57339</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1674</v>
+      </c>
+      <c r="I91" s="3">
+        <v>1638</v>
+      </c>
+      <c r="J91" s="3">
+        <v>1482</v>
+      </c>
+      <c r="K91" s="3">
+        <v>1174</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N91" s="3">
+        <v>43288</v>
+      </c>
+      <c r="O91" s="3">
+        <v>41263</v>
+      </c>
+      <c r="P91" s="3">
+        <v>28751</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>25932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2021,8 +5378,44 @@
       <c r="D92" s="2">
         <v>75096</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92" s="3">
+        <v>76777</v>
+      </c>
+      <c r="G92" s="3">
+        <v>74572</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I92" s="3">
+        <v>2476</v>
+      </c>
+      <c r="J92" s="3">
+        <v>2339</v>
+      </c>
+      <c r="K92" s="3">
+        <v>2119</v>
+      </c>
+      <c r="L92" s="3">
+        <v>1169914</v>
+      </c>
+      <c r="M92" s="3">
+        <v>1093795</v>
+      </c>
+      <c r="N92" s="3">
+        <v>53700</v>
+      </c>
+      <c r="O92" s="3">
+        <v>52529</v>
+      </c>
+      <c r="P92" s="3">
+        <v>40747</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>29891</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2035,8 +5428,44 @@
       <c r="D93" s="2">
         <v>7154</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F93" s="3">
+        <v>5302</v>
+      </c>
+      <c r="G93" s="3">
+        <v>4581</v>
+      </c>
+      <c r="H93" s="3">
+        <v>241</v>
+      </c>
+      <c r="I93" s="3">
+        <v>217</v>
+      </c>
+      <c r="J93" s="3">
+        <v>161</v>
+      </c>
+      <c r="K93" s="3">
+        <v>141</v>
+      </c>
+      <c r="L93" s="3">
+        <v>128812</v>
+      </c>
+      <c r="M93" s="3">
+        <v>122765</v>
+      </c>
+      <c r="N93" s="3">
+        <v>5709</v>
+      </c>
+      <c r="O93" s="3">
+        <v>5575</v>
+      </c>
+      <c r="P93" s="3">
+        <v>3401</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2049,8 +5478,44 @@
       <c r="D94" s="2">
         <v>216773</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94" s="3">
+        <v>278026</v>
+      </c>
+      <c r="G94" s="3">
+        <v>219165</v>
+      </c>
+      <c r="H94" s="3">
+        <v>11307</v>
+      </c>
+      <c r="I94" s="3">
+        <v>10981</v>
+      </c>
+      <c r="J94" s="3">
+        <v>10810</v>
+      </c>
+      <c r="K94" s="3">
+        <v>8484</v>
+      </c>
+      <c r="L94" s="3">
+        <v>2416749</v>
+      </c>
+      <c r="M94" s="3">
+        <v>2217360</v>
+      </c>
+      <c r="N94" s="3">
+        <v>146391</v>
+      </c>
+      <c r="O94" s="3">
+        <v>139708</v>
+      </c>
+      <c r="P94" s="3">
+        <v>106820</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>90659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2063,8 +5528,44 @@
       <c r="D95" s="2">
         <v>19559</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95" s="3">
+        <v>60008</v>
+      </c>
+      <c r="G95" s="3">
+        <v>57069</v>
+      </c>
+      <c r="H95" s="3">
+        <v>3127</v>
+      </c>
+      <c r="I95" s="3">
+        <v>2527</v>
+      </c>
+      <c r="J95" s="3">
+        <v>2242</v>
+      </c>
+      <c r="K95" s="3">
+        <v>2075</v>
+      </c>
+      <c r="L95" s="3">
+        <v>429213</v>
+      </c>
+      <c r="M95" s="3">
+        <v>388321</v>
+      </c>
+      <c r="N95" s="3">
+        <v>13017</v>
+      </c>
+      <c r="O95" s="3">
+        <v>9816</v>
+      </c>
+      <c r="P95" s="3">
+        <v>8718</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2077,8 +5578,44 @@
       <c r="D96" s="2">
         <v>6099</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96" s="3">
+        <v>24166</v>
+      </c>
+      <c r="G96" s="3">
+        <v>17045</v>
+      </c>
+      <c r="H96" s="3">
+        <v>828</v>
+      </c>
+      <c r="I96" s="3">
+        <v>759</v>
+      </c>
+      <c r="J96" s="3">
+        <v>553</v>
+      </c>
+      <c r="K96" s="3">
+        <v>418</v>
+      </c>
+      <c r="L96" s="3">
+        <v>183673</v>
+      </c>
+      <c r="M96" s="3">
+        <v>163500</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2091,8 +5628,44 @@
       <c r="D97" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97" s="3">
+        <v>75651</v>
+      </c>
+      <c r="G97" s="3">
+        <v>56867</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L97" s="3">
+        <v>480014</v>
+      </c>
+      <c r="M97" s="3">
+        <v>393752</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2105,8 +5678,44 @@
       <c r="D98" s="2">
         <v>12956</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2119,8 +5728,44 @@
       <c r="D99" s="2">
         <v>21645</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99" s="3">
+        <v>36102</v>
+      </c>
+      <c r="G99" s="3">
+        <v>28061</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1414</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1375</v>
+      </c>
+      <c r="J99" s="3">
+        <v>1043</v>
+      </c>
+      <c r="K99" s="3">
+        <v>884</v>
+      </c>
+      <c r="L99" s="3">
+        <v>556103</v>
+      </c>
+      <c r="M99" s="3">
+        <v>458442</v>
+      </c>
+      <c r="N99" s="3">
+        <v>16768</v>
+      </c>
+      <c r="O99" s="3">
+        <v>14038</v>
+      </c>
+      <c r="P99" s="3">
+        <v>10885</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2133,8 +5778,44 @@
       <c r="D100" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100" s="3">
+        <v>94261</v>
+      </c>
+      <c r="G100" s="3">
+        <v>79159</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L100" s="3">
+        <v>796744</v>
+      </c>
+      <c r="M100" s="3">
+        <v>659016</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -2147,8 +5828,44 @@
       <c r="D101" s="2">
         <v>11624</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101" s="3">
+        <v>15095</v>
+      </c>
+      <c r="G101" s="3">
+        <v>13775</v>
+      </c>
+      <c r="H101" s="3">
+        <v>980</v>
+      </c>
+      <c r="I101" s="3">
+        <v>946</v>
+      </c>
+      <c r="J101" s="3">
+        <v>669</v>
+      </c>
+      <c r="K101" s="3">
+        <v>505</v>
+      </c>
+      <c r="L101" s="3">
+        <v>284416</v>
+      </c>
+      <c r="M101" s="3">
+        <v>255056</v>
+      </c>
+      <c r="N101" s="3">
+        <v>9623</v>
+      </c>
+      <c r="O101" s="3">
+        <v>8222</v>
+      </c>
+      <c r="P101" s="3">
+        <v>5885</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2161,8 +5878,44 @@
       <c r="D102" s="2">
         <v>15101</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102" s="3">
+        <v>28803</v>
+      </c>
+      <c r="G102" s="3">
+        <v>27213</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1367</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1291</v>
+      </c>
+      <c r="J102" s="3">
+        <v>798</v>
+      </c>
+      <c r="K102" s="3">
+        <v>797</v>
+      </c>
+      <c r="L102" s="3">
+        <v>352357</v>
+      </c>
+      <c r="M102" s="3">
+        <v>316266</v>
+      </c>
+      <c r="N102" s="3">
+        <v>8707</v>
+      </c>
+      <c r="O102" s="3">
+        <v>8640</v>
+      </c>
+      <c r="P102" s="3">
+        <v>7084</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>6472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2175,8 +5928,44 @@
       <c r="D103" s="2">
         <v>26995</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2189,8 +5978,44 @@
       <c r="D104" s="2">
         <v>113979</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104" s="3">
+        <v>834087</v>
+      </c>
+      <c r="G104" s="3">
+        <v>279189</v>
+      </c>
+      <c r="H104" s="3">
+        <v>7716</v>
+      </c>
+      <c r="I104" s="3">
+        <v>6898</v>
+      </c>
+      <c r="J104" s="3">
+        <v>5305</v>
+      </c>
+      <c r="K104" s="3">
+        <v>4679</v>
+      </c>
+      <c r="L104" s="3">
+        <v>3082528</v>
+      </c>
+      <c r="M104" s="3">
+        <v>2634353</v>
+      </c>
+      <c r="N104" s="3">
+        <v>48115</v>
+      </c>
+      <c r="O104" s="3">
+        <v>40716</v>
+      </c>
+      <c r="P104" s="3">
+        <v>32522</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>26394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2203,8 +6028,44 @@
       <c r="D105" s="2">
         <v>574948</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105" s="3">
+        <v>1281660</v>
+      </c>
+      <c r="G105" s="3">
+        <v>997243</v>
+      </c>
+      <c r="H105" s="3">
+        <v>86983</v>
+      </c>
+      <c r="I105" s="3">
+        <v>87049</v>
+      </c>
+      <c r="J105" s="3">
+        <v>30449</v>
+      </c>
+      <c r="K105" s="3">
+        <v>24187</v>
+      </c>
+      <c r="L105" s="3">
+        <v>9820365</v>
+      </c>
+      <c r="M105" s="3">
+        <v>8825050</v>
+      </c>
+      <c r="N105" s="3">
+        <v>363093</v>
+      </c>
+      <c r="O105" s="3">
+        <v>835227</v>
+      </c>
+      <c r="P105" s="3">
+        <v>246298</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>210617</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2217,113 +6078,293 @@
       <c r="D106" s="2">
         <v>4243082</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106" s="3">
+        <v>9249440</v>
+      </c>
+      <c r="G106" s="3">
+        <v>8501508</v>
+      </c>
+      <c r="H106" s="3">
+        <v>808600</v>
+      </c>
+      <c r="I106" s="3">
+        <v>289682</v>
+      </c>
+      <c r="J106" s="3">
+        <v>246153</v>
+      </c>
+      <c r="K106" s="3">
+        <v>207888</v>
+      </c>
+      <c r="L106" s="3">
+        <v>61125572</v>
+      </c>
+      <c r="M106" s="3">
+        <v>81064102</v>
+      </c>
+      <c r="N106" s="3">
+        <v>2632614</v>
+      </c>
+      <c r="O106" s="3">
+        <v>2493204</v>
+      </c>
+      <c r="P106" s="3">
+        <v>1828433</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>1698041</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1905.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1905.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BB4FBF-FCBC-4988-AE75-F37B67BFC94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12588253-4838-4F43-A380-85CCA85B6ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="750" windowWidth="26265" windowHeight="21690" xr2:uid="{EF18974A-21BE-4F01-A442-1E4708B6D095}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{EF18974A-21BE-4F01-A442-1E4708B6D095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="141">
   <si>
     <t>губ</t>
   </si>
@@ -433,6 +433,27 @@
   </si>
   <si>
     <t>2Ш</t>
+  </si>
+  <si>
+    <t>чж-гор-о NYY</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>чр-гор-о YY</t>
+  </si>
+  <si>
+    <t>чс-гор-о YY</t>
+  </si>
+  <si>
+    <t>чж-уез-о NYY</t>
+  </si>
+  <si>
+    <t>чр-уез-о YY</t>
+  </si>
+  <si>
+    <t>чс-уез-о YY</t>
   </si>
 </sst>
 </file>
@@ -797,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5B6F9-649D-48D0-A365-7FB0E4D5C1A0}">
-  <dimension ref="A1:Q466"/>
+  <dimension ref="A1:AC466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,14 +829,26 @@
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,37 +868,73 @@
         <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -884,38 +953,48 @@
       <c r="G2" s="3">
         <v>17416</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3">
         <v>709</v>
       </c>
-      <c r="I2" s="3">
+      <c r="K2" s="3">
         <v>691</v>
       </c>
-      <c r="J2" s="3">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
         <v>605</v>
       </c>
-      <c r="K2" s="3">
+      <c r="O2" s="3">
         <v>481</v>
       </c>
-      <c r="L2" s="3">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3">
         <v>168132</v>
       </c>
-      <c r="M2" s="3">
+      <c r="S2" s="3">
         <v>187512</v>
       </c>
-      <c r="N2" s="3">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3">
         <v>7188</v>
       </c>
-      <c r="O2" s="3">
+      <c r="W2" s="3">
         <v>6689</v>
       </c>
-      <c r="P2" s="3">
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3">
         <v>4552</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="AA2" s="3">
         <v>4197</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -934,38 +1013,48 @@
       <c r="G3" s="3">
         <v>77855</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
         <v>3612</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="3">
         <v>3421</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <v>3554</v>
       </c>
-      <c r="K3" s="3">
+      <c r="O3" s="3">
         <v>2919</v>
       </c>
-      <c r="L3" s="3">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3">
         <v>519270</v>
       </c>
-      <c r="M3" s="3">
+      <c r="S3" s="3">
         <v>492111</v>
       </c>
-      <c r="N3" s="3">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3">
         <v>16714</v>
       </c>
-      <c r="O3" s="3">
+      <c r="W3" s="3">
         <v>15570</v>
       </c>
-      <c r="P3" s="3">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3">
         <v>11577</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="AA3" s="3">
         <v>10550</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -984,38 +1073,48 @@
       <c r="G4" s="3">
         <v>107676</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>4331</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="3">
         <v>3761</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <v>3025</v>
       </c>
-      <c r="K4" s="3">
+      <c r="O4" s="3">
         <v>2522</v>
       </c>
-      <c r="L4" s="3">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
         <v>800132</v>
       </c>
-      <c r="M4" s="3">
+      <c r="S4" s="3">
         <v>792372</v>
       </c>
-      <c r="N4" s="3">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3">
         <v>26095</v>
       </c>
-      <c r="O4" s="3">
+      <c r="W4" s="3">
         <v>22964</v>
       </c>
-      <c r="P4" s="3">
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3">
         <v>16799</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="AA4" s="3">
         <v>16607</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1034,38 +1133,48 @@
       <c r="G5" s="3">
         <v>117366</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>4367</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="3">
         <v>3867</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
         <v>3032</v>
       </c>
-      <c r="K5" s="3">
+      <c r="O5" s="3">
         <v>2380</v>
       </c>
-      <c r="L5" s="3">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3">
         <v>728287</v>
       </c>
-      <c r="M5" s="3">
+      <c r="S5" s="3">
         <v>744176</v>
       </c>
-      <c r="N5" s="3">
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3">
         <v>26034</v>
       </c>
-      <c r="O5" s="3">
+      <c r="W5" s="3">
         <v>24197</v>
       </c>
-      <c r="P5" s="3">
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3">
         <v>18572</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="AA5" s="3">
         <v>16974</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1084,38 +1193,48 @@
       <c r="G6" s="3">
         <v>159397</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
         <v>4797</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
         <v>3352</v>
       </c>
-      <c r="K6" s="3">
+      <c r="O6" s="3">
         <v>2842</v>
       </c>
-      <c r="L6" s="3">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
         <v>1568090</v>
       </c>
-      <c r="M6" s="3">
+      <c r="S6" s="3">
         <v>1562840</v>
       </c>
-      <c r="N6" s="3">
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3">
         <v>68611</v>
       </c>
-      <c r="O6" s="3">
+      <c r="W6" s="3">
         <v>63918</v>
       </c>
-      <c r="P6" s="3">
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3">
         <v>46592</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="AA6" s="3">
         <v>42754</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1134,38 +1253,48 @@
       <c r="G7" s="3">
         <v>119439</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>3537</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
         <v>2311</v>
       </c>
-      <c r="K7" s="3">
+      <c r="O7" s="3">
         <v>1919</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="3">
+      <c r="S7" s="3">
         <v>709666</v>
       </c>
-      <c r="N7" s="3">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3">
         <v>29365</v>
       </c>
-      <c r="O7" s="3">
+      <c r="W7" s="3">
         <v>28063</v>
       </c>
-      <c r="P7" s="3">
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3">
         <v>20723</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="AA7" s="3">
         <v>19214</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1184,38 +1313,48 @@
       <c r="G8" s="3">
         <v>306906</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10316</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
         <v>7523</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>6115</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
         <v>1777985</v>
       </c>
-      <c r="M8" s="3">
+      <c r="S8" s="3">
         <v>1818234</v>
       </c>
-      <c r="N8" s="3">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3">
         <v>75650</v>
       </c>
-      <c r="O8" s="3">
+      <c r="W8" s="3">
         <v>71041</v>
       </c>
-      <c r="P8" s="3">
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3">
         <v>50833</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="AA8" s="3">
         <v>46822</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1234,38 +1373,48 @@
       <c r="G9" s="3">
         <v>65451</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>1886</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1731</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
         <v>1559</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>1392</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3">
         <v>747635</v>
       </c>
-      <c r="M9" s="3">
+      <c r="S9" s="3">
         <v>794670</v>
       </c>
-      <c r="N9" s="3">
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3">
         <v>24318</v>
       </c>
-      <c r="O9" s="3">
+      <c r="W9" s="3">
         <v>22881</v>
       </c>
-      <c r="P9" s="3">
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3">
         <v>19545</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="AA9" s="3">
         <v>18628</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1284,38 +1433,48 @@
       <c r="G10" s="3">
         <v>123736</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
         <v>4812</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3897</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
         <v>2832</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>2371</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
         <v>1153403</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N10" s="3">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3">
         <v>48914</v>
       </c>
-      <c r="O10" s="3">
+      <c r="W10" s="3">
         <v>45698</v>
       </c>
-      <c r="P10" s="3">
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3">
         <v>29104</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="AA10" s="3">
         <v>26486</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1334,38 +1493,48 @@
       <c r="G11" s="3">
         <v>87904</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>2816</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="3">
         <v>2351</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <v>1709</v>
       </c>
-      <c r="K11" s="3">
+      <c r="O11" s="3">
         <v>1410</v>
       </c>
-      <c r="L11" s="3">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3">
         <v>919289</v>
       </c>
-      <c r="M11" s="3">
+      <c r="S11" s="3">
         <v>915632</v>
       </c>
-      <c r="N11" s="3">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3">
         <v>40239</v>
       </c>
-      <c r="O11" s="3">
+      <c r="W11" s="3">
         <v>37242</v>
       </c>
-      <c r="P11" s="3">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3">
         <v>24892</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="AA11" s="3">
         <v>22969</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1384,38 +1553,48 @@
       <c r="G12" s="3">
         <v>83493</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
         <v>5019</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4866</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
         <v>4027</v>
       </c>
-      <c r="K12" s="3">
+      <c r="O12" s="3">
         <v>3431</v>
       </c>
-      <c r="L12" s="3">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
         <v>844835</v>
       </c>
-      <c r="M12" s="3">
+      <c r="S12" s="3">
         <v>852840</v>
       </c>
-      <c r="N12" s="3">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3">
         <v>50815</v>
       </c>
-      <c r="O12" s="3">
+      <c r="W12" s="3">
         <v>48959</v>
       </c>
-      <c r="P12" s="3">
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3">
         <v>30054</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="AA12" s="3">
         <v>28430</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1434,38 +1613,48 @@
       <c r="G13" s="3">
         <v>115337</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
         <v>3570</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="3">
         <v>2969</v>
       </c>
-      <c r="J13" s="3">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
         <v>2771</v>
       </c>
-      <c r="K13" s="3">
+      <c r="O13" s="3">
         <v>2237</v>
       </c>
-      <c r="L13" s="3">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
         <v>1516421</v>
       </c>
-      <c r="M13" s="3">
+      <c r="S13" s="3">
         <v>1534568</v>
       </c>
-      <c r="N13" s="3">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3">
         <v>67357</v>
       </c>
-      <c r="O13" s="3">
+      <c r="W13" s="3">
         <v>63290</v>
       </c>
-      <c r="P13" s="3">
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3">
         <v>52876</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="AA13" s="3">
         <v>48215</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1484,38 +1673,48 @@
       <c r="G14" s="3">
         <v>1881962</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
         <v>50567</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>44324</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
         <v>36400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>30019</v>
       </c>
-      <c r="L14" s="3">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
         <v>11464979</v>
       </c>
-      <c r="M14" s="3">
+      <c r="S14" s="3">
         <v>11563083</v>
       </c>
-      <c r="N14" s="3">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3">
         <v>481300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="W14" s="3">
         <v>450512</v>
       </c>
-      <c r="P14" s="3">
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3">
         <v>326119</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="AA14" s="3">
         <v>301846</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1534,38 +1733,48 @@
       <c r="G15" s="3">
         <v>89290</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
         <v>3059</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2636</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
         <v>1963</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>1750</v>
       </c>
-      <c r="L15" s="3">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3">
         <v>710233</v>
       </c>
-      <c r="M15" s="3">
+      <c r="S15" s="3">
         <v>726648</v>
       </c>
-      <c r="N15" s="3">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3">
         <v>24646</v>
       </c>
-      <c r="O15" s="3">
+      <c r="W15" s="3">
         <v>23577</v>
       </c>
-      <c r="P15" s="3">
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3">
         <v>15437</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="AA15" s="3">
         <v>14965</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1584,38 +1793,48 @@
       <c r="G16" s="3">
         <v>403473</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I16" s="3">
+      <c r="K16" s="3">
         <v>11549</v>
       </c>
-      <c r="J16" s="3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3">
         <v>8611</v>
       </c>
-      <c r="K16" s="3">
+      <c r="O16" s="3">
         <v>7699</v>
       </c>
-      <c r="L16" s="3">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="3">
+      <c r="S16" s="3">
         <v>0</v>
       </c>
-      <c r="N16" s="3">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3">
         <v>0</v>
       </c>
-      <c r="O16" s="3">
+      <c r="W16" s="3">
         <v>0</v>
       </c>
-      <c r="P16" s="3">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3">
         <v>0</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="AA16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1634,38 +1853,48 @@
       <c r="G17" s="3">
         <v>69367</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
         <v>1163</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1221</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
         <v>931</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>864</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3">
         <v>474867</v>
       </c>
-      <c r="M17" s="3">
+      <c r="S17" s="3">
         <v>490717</v>
       </c>
-      <c r="N17" s="3">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3">
         <v>19868</v>
       </c>
-      <c r="O17" s="3">
+      <c r="W17" s="3">
         <v>20626</v>
       </c>
-      <c r="P17" s="3">
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3">
         <v>12199</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="AA17" s="3">
         <v>12780</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1684,38 +1913,48 @@
       <c r="G18" s="3">
         <v>20962</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
         <v>871</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>669</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3">
         <v>680</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>556</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3">
         <v>413148</v>
       </c>
-      <c r="M18" s="3">
+      <c r="S18" s="3">
         <v>448244</v>
       </c>
-      <c r="N18" s="3">
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3">
         <v>14793</v>
       </c>
-      <c r="O18" s="3">
+      <c r="W18" s="3">
         <v>13960</v>
       </c>
-      <c r="P18" s="3">
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3">
         <v>9804</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="AA18" s="3">
         <v>9875</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1734,38 +1973,48 @@
       <c r="G19" s="3">
         <v>40102</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
         <v>931</v>
       </c>
-      <c r="I19" s="3">
+      <c r="K19" s="3">
         <v>757</v>
       </c>
-      <c r="J19" s="3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3">
         <v>719</v>
       </c>
-      <c r="K19" s="3">
+      <c r="O19" s="3">
         <v>619</v>
       </c>
-      <c r="L19" s="3">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3">
         <v>256597</v>
       </c>
-      <c r="M19" s="3">
+      <c r="S19" s="3">
         <v>273495</v>
       </c>
-      <c r="N19" s="3">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3">
         <v>9452</v>
       </c>
-      <c r="O19" s="3">
+      <c r="W19" s="3">
         <v>8618</v>
       </c>
-      <c r="P19" s="3">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3">
         <v>5716</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="AA19" s="3">
         <v>5617</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1784,38 +2033,48 @@
       <c r="G20" s="3">
         <v>85527</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
         <v>2924</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2176</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3">
         <v>1734</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>1359</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3">
         <v>609048</v>
       </c>
-      <c r="M20" s="3">
+      <c r="S20" s="3">
         <v>614136</v>
       </c>
-      <c r="N20" s="3">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3">
         <v>24873</v>
       </c>
-      <c r="O20" s="3">
+      <c r="W20" s="3">
         <v>23522</v>
       </c>
-      <c r="P20" s="3">
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3">
         <v>15184</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="AA20" s="3">
         <v>14528</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1834,38 +2093,48 @@
       <c r="G21" s="3">
         <v>328041</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
         <v>14448</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>14386</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3">
         <v>8603</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>8219</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3">
         <v>531550</v>
       </c>
-      <c r="M21" s="3">
+      <c r="S21" s="3">
         <v>559616</v>
       </c>
-      <c r="N21" s="3">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3">
         <v>23031</v>
       </c>
-      <c r="O21" s="3">
+      <c r="W21" s="3">
         <v>23346</v>
       </c>
-      <c r="P21" s="3">
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3">
         <v>14096</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="AA21" s="3">
         <v>14271</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1884,38 +2153,48 @@
       <c r="G22" s="3">
         <v>47514</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
         <v>1341</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1142</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3">
         <v>1133</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>1045</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3">
         <v>288475</v>
       </c>
-      <c r="M22" s="3">
+      <c r="S22" s="3">
         <v>295623</v>
       </c>
-      <c r="N22" s="3">
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3">
         <v>10159</v>
       </c>
-      <c r="O22" s="3">
+      <c r="W22" s="3">
         <v>9963</v>
       </c>
-      <c r="P22" s="3">
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3">
         <v>7381</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="AA22" s="3">
         <v>7304</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1934,38 +2213,48 @@
       <c r="G23" s="3">
         <v>48777</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
         <v>1639</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1640</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3">
         <v>1147</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>1187</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3">
         <v>452581</v>
       </c>
-      <c r="M23" s="3">
+      <c r="S23" s="3">
         <v>454011</v>
       </c>
-      <c r="N23" s="3">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3">
         <v>17772</v>
       </c>
-      <c r="O23" s="3">
+      <c r="W23" s="3">
         <v>17674</v>
       </c>
-      <c r="P23" s="3">
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3">
         <v>10620</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="AA23" s="3">
         <v>10334</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1984,38 +2273,48 @@
       <c r="G24" s="3">
         <v>29211</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
         <v>777</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>878</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
         <v>626</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>632</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3">
         <v>268776</v>
       </c>
-      <c r="M24" s="3">
+      <c r="S24" s="3">
         <v>290737</v>
       </c>
-      <c r="N24" s="3">
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3">
         <v>9828</v>
       </c>
-      <c r="O24" s="3">
+      <c r="W24" s="3">
         <v>9737</v>
       </c>
-      <c r="P24" s="3">
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3">
         <v>7545</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="AA24" s="3">
         <v>7457</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2034,38 +2333,48 @@
       <c r="G25" s="3">
         <v>45720</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
         <v>1457</v>
       </c>
-      <c r="I25" s="3">
+      <c r="K25" s="3">
         <v>1391</v>
       </c>
-      <c r="J25" s="3">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
         <v>911</v>
       </c>
-      <c r="K25" s="3">
+      <c r="O25" s="3">
         <v>824</v>
       </c>
-      <c r="L25" s="3">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3">
         <v>402517</v>
       </c>
-      <c r="M25" s="3">
+      <c r="S25" s="3">
         <v>405299</v>
       </c>
-      <c r="N25" s="3">
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3">
         <v>16342</v>
       </c>
-      <c r="O25" s="3">
+      <c r="W25" s="3">
         <v>15839</v>
       </c>
-      <c r="P25" s="3">
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3">
         <v>9858</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="AA25" s="3">
         <v>10072</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2084,38 +2393,48 @@
       <c r="G26" s="3">
         <v>1207984</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
         <v>41721</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>38444</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3">
         <v>27858</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>24754</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3">
         <v>4407792</v>
       </c>
-      <c r="M26" s="3">
+      <c r="S26" s="3">
         <v>4558526</v>
       </c>
-      <c r="N26" s="3">
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3">
         <v>170764</v>
       </c>
-      <c r="O26" s="3">
+      <c r="W26" s="3">
         <v>166862</v>
       </c>
-      <c r="P26" s="3">
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3">
         <v>107840</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="AA26" s="3">
         <v>107208</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2134,38 +2453,48 @@
       <c r="G27" s="3">
         <v>90114</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
         <v>2804</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2710</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3">
         <v>1825</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>1708</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3">
         <v>254781</v>
       </c>
-      <c r="M27" s="3">
+      <c r="S27" s="3">
         <v>290514</v>
       </c>
-      <c r="N27" s="3">
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3">
         <v>7460</v>
       </c>
-      <c r="O27" s="3">
+      <c r="W27" s="3">
         <v>6736</v>
       </c>
-      <c r="P27" s="3">
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3">
         <v>5908</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="AA27" s="3">
         <v>4369</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2184,38 +2513,48 @@
       <c r="G28" s="3">
         <v>187960</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
         <v>6647</v>
       </c>
-      <c r="I28" s="3">
+      <c r="K28" s="3">
         <v>6110</v>
       </c>
-      <c r="J28" s="3">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3">
         <v>6288</v>
       </c>
-      <c r="K28" s="3">
+      <c r="O28" s="3">
         <v>5159</v>
       </c>
-      <c r="L28" s="3">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3">
         <v>495247</v>
       </c>
-      <c r="M28" s="3">
+      <c r="S28" s="3">
         <v>532051</v>
       </c>
-      <c r="N28" s="3">
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3">
         <v>10771</v>
       </c>
-      <c r="O28" s="3">
+      <c r="W28" s="3">
         <v>10173</v>
       </c>
-      <c r="P28" s="3">
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3">
         <v>9378</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="AA28" s="3">
         <v>8829</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2234,38 +2573,48 @@
       <c r="G29" s="3">
         <v>40436</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
         <v>1334</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>1279</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3">
         <v>1254</v>
       </c>
-      <c r="K29" s="3">
+      <c r="O29" s="3">
         <v>1017</v>
       </c>
-      <c r="L29" s="3">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3">
         <v>181349</v>
       </c>
-      <c r="M29" s="3">
+      <c r="S29" s="3">
         <v>189158</v>
       </c>
-      <c r="N29" s="3">
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3">
         <v>4824</v>
       </c>
-      <c r="O29" s="3">
+      <c r="W29" s="3">
         <v>4550</v>
       </c>
-      <c r="P29" s="3">
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3">
         <v>3934</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="AA29" s="3">
         <v>3488</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2284,38 +2633,48 @@
       <c r="G30" s="3">
         <v>315510</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
         <v>10785</v>
       </c>
-      <c r="I30" s="3">
+      <c r="K30" s="3">
         <v>10099</v>
       </c>
-      <c r="J30" s="3">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3">
         <v>9367</v>
       </c>
-      <c r="K30" s="3">
+      <c r="O30" s="3">
         <v>7884</v>
       </c>
-      <c r="L30" s="3">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3">
         <v>31377</v>
       </c>
-      <c r="M30" s="3">
+      <c r="S30" s="3">
         <v>1011723</v>
       </c>
-      <c r="N30" s="3">
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3">
         <v>28055</v>
       </c>
-      <c r="O30" s="3">
+      <c r="W30" s="3">
         <v>21459</v>
       </c>
-      <c r="P30" s="3">
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3">
         <v>10220</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="AA30" s="3">
         <v>16686</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2334,38 +2693,48 @@
       <c r="G31" s="3">
         <v>134889</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
         <v>4847</v>
       </c>
-      <c r="I31" s="3">
+      <c r="K31" s="3">
         <v>4250</v>
       </c>
-      <c r="J31" s="3">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3">
         <v>4050</v>
       </c>
-      <c r="K31" s="3">
+      <c r="O31" s="3">
         <v>3204</v>
       </c>
-      <c r="L31" s="3">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3">
         <v>988960</v>
       </c>
-      <c r="M31" s="3">
+      <c r="S31" s="3">
         <v>942075</v>
       </c>
-      <c r="N31" s="3">
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3">
         <v>39104</v>
       </c>
-      <c r="O31" s="3">
+      <c r="W31" s="3">
         <v>36370</v>
       </c>
-      <c r="P31" s="3">
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3">
         <v>27253</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="AA31" s="3">
         <v>25368</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2384,38 +2753,48 @@
       <c r="G32" s="3">
         <v>69424</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
         <v>3241</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2891</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3">
         <v>2690</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>2177</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3">
         <v>811361</v>
       </c>
-      <c r="M32" s="3">
+      <c r="S32" s="3">
         <v>948758</v>
       </c>
-      <c r="N32" s="3">
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3">
         <v>39756</v>
       </c>
-      <c r="O32" s="3">
+      <c r="W32" s="3">
         <v>37139</v>
       </c>
-      <c r="P32" s="3">
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3">
         <v>30351</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="AA32" s="3">
         <v>29114</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2434,38 +2813,48 @@
       <c r="G33" s="3">
         <v>32143</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
         <v>1143</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1052</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3">
         <v>847</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>766</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3">
         <v>682563</v>
       </c>
-      <c r="M33" s="3">
+      <c r="S33" s="3">
         <v>750091</v>
       </c>
-      <c r="N33" s="3">
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3">
         <v>29760</v>
       </c>
-      <c r="O33" s="3">
+      <c r="W33" s="3">
         <v>28192</v>
       </c>
-      <c r="P33" s="3">
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3">
         <v>22995</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="AA33" s="3">
         <v>21518</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2484,38 +2873,48 @@
       <c r="G34" s="3">
         <v>65654</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
         <v>2511</v>
       </c>
-      <c r="I34" s="3">
+      <c r="K34" s="3">
         <v>2318</v>
       </c>
-      <c r="J34" s="3">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3">
         <v>2025</v>
       </c>
-      <c r="K34" s="3">
+      <c r="O34" s="3">
         <v>1798</v>
       </c>
-      <c r="L34" s="3">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3">
         <v>1535652</v>
       </c>
-      <c r="M34" s="3">
+      <c r="S34" s="3">
         <v>1505536</v>
       </c>
-      <c r="N34" s="3">
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3">
         <v>84763</v>
       </c>
-      <c r="O34" s="3">
+      <c r="W34" s="3">
         <v>80849</v>
       </c>
-      <c r="P34" s="3">
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3">
         <v>54790</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="AA34" s="3">
         <v>53220</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2534,38 +2933,48 @@
       <c r="G35" s="3">
         <v>52753</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
         <v>1844</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1758</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3">
         <v>1514</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>1332</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3">
         <v>1644415</v>
       </c>
-      <c r="M35" s="3">
+      <c r="S35" s="3">
         <v>1720768</v>
       </c>
-      <c r="N35" s="3">
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3">
         <v>85276</v>
       </c>
-      <c r="O35" s="3">
+      <c r="W35" s="3">
         <v>81176</v>
       </c>
-      <c r="P35" s="3">
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3">
         <v>66823</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="AA35" s="3">
         <v>63758</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2584,38 +2993,48 @@
       <c r="G36" s="3">
         <v>187783</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
         <v>7972</v>
       </c>
-      <c r="I36" s="3">
+      <c r="K36" s="3">
         <v>7552</v>
       </c>
-      <c r="J36" s="3">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3">
         <v>5816</v>
       </c>
-      <c r="K36" s="3">
+      <c r="O36" s="3">
         <v>4656</v>
       </c>
-      <c r="L36" s="3">
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3">
         <v>1250221</v>
       </c>
-      <c r="M36" s="3">
+      <c r="S36" s="3">
         <v>1142918</v>
       </c>
-      <c r="N36" s="3">
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3">
         <v>63594</v>
       </c>
-      <c r="O36" s="3">
+      <c r="W36" s="3">
         <v>61084</v>
       </c>
-      <c r="P36" s="3">
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3">
         <v>36975</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="AA36" s="3">
         <v>35114</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2634,38 +3053,48 @@
       <c r="G37" s="3">
         <v>120530</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
         <v>4285</v>
       </c>
-      <c r="I37" s="3">
+      <c r="K37" s="3">
         <v>4176</v>
       </c>
-      <c r="J37" s="3">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3">
         <v>3702</v>
       </c>
-      <c r="K37" s="3">
+      <c r="O37" s="3">
         <v>3460</v>
       </c>
-      <c r="L37" s="3">
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3">
         <v>1128586</v>
       </c>
-      <c r="M37" s="3">
+      <c r="S37" s="3">
         <v>1130424</v>
       </c>
-      <c r="N37" s="3">
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3">
         <v>50961</v>
       </c>
-      <c r="O37" s="3">
+      <c r="W37" s="3">
         <v>50486</v>
       </c>
-      <c r="P37" s="3">
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3">
         <v>33111</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="AA37" s="3">
         <v>31374</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2684,38 +3113,48 @@
       <c r="G38" s="3">
         <v>45490</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
         <v>1636</v>
       </c>
-      <c r="I38" s="3">
+      <c r="K38" s="3">
         <v>1470</v>
       </c>
-      <c r="J38" s="3">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3">
         <v>1702</v>
       </c>
-      <c r="K38" s="3">
+      <c r="O38" s="3">
         <v>1482</v>
       </c>
-      <c r="L38" s="3">
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3">
         <v>578075</v>
       </c>
-      <c r="M38" s="3">
+      <c r="S38" s="3">
         <v>667522</v>
       </c>
-      <c r="N38" s="3">
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3">
         <v>32013</v>
       </c>
-      <c r="O38" s="3">
+      <c r="W38" s="3">
         <v>31083</v>
       </c>
-      <c r="P38" s="3">
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3">
         <v>27294</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="AA38" s="3">
         <v>26591</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2734,38 +3173,48 @@
       <c r="G39" s="3">
         <v>46805</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
         <v>1302</v>
       </c>
-      <c r="I39" s="3">
+      <c r="K39" s="3">
         <v>1155</v>
       </c>
-      <c r="J39" s="3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3">
         <v>1098</v>
       </c>
-      <c r="K39" s="3">
+      <c r="O39" s="3">
         <v>964</v>
       </c>
-      <c r="L39" s="3">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3">
         <v>703800</v>
       </c>
-      <c r="M39" s="3">
+      <c r="S39" s="3">
         <v>808342</v>
       </c>
-      <c r="N39" s="3">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3">
         <v>33837</v>
       </c>
-      <c r="O39" s="3">
+      <c r="W39" s="3">
         <v>32507</v>
       </c>
-      <c r="P39" s="3">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3">
         <v>27107</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="AA39" s="3">
         <v>26191</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2784,38 +3233,48 @@
       <c r="G40" s="3">
         <v>99574</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3">
         <v>3148</v>
       </c>
-      <c r="I40" s="3">
+      <c r="K40" s="3">
         <v>3343</v>
       </c>
-      <c r="J40" s="3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3">
         <v>2217</v>
       </c>
-      <c r="K40" s="3">
+      <c r="O40" s="3">
         <v>2302</v>
       </c>
-      <c r="L40" s="3">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3">
         <v>1372527</v>
       </c>
-      <c r="M40" s="3">
+      <c r="S40" s="3">
         <v>1115426</v>
       </c>
-      <c r="N40" s="3">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3">
         <v>67036</v>
       </c>
-      <c r="O40" s="3">
+      <c r="W40" s="3">
         <v>63163</v>
       </c>
-      <c r="P40" s="3">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3">
         <v>46741</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="AA40" s="3">
         <v>34984</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2834,38 +3293,48 @@
       <c r="G41" s="3">
         <v>51016</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3">
         <v>2698</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2521</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3">
         <v>2270</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>1979</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3">
         <v>737653</v>
       </c>
-      <c r="M41" s="3">
+      <c r="S41" s="3">
         <v>789840</v>
       </c>
-      <c r="N41" s="3">
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3">
         <v>35833</v>
       </c>
-      <c r="O41" s="3">
+      <c r="W41" s="3">
         <v>34188</v>
       </c>
-      <c r="P41" s="3">
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3">
         <v>32255</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="AA41" s="3">
         <v>29577</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2884,38 +3353,48 @@
       <c r="G42" s="3">
         <v>573848</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
         <v>20541</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>19779</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3">
         <v>17687</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>14359</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3">
+      <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3">
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3">
+      <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3">
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="AA42" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2934,38 +3413,48 @@
       <c r="G43" s="3">
         <v>64694</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3">
         <v>3298</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3086</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3">
         <v>2586</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>2212</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3">
         <v>818621</v>
       </c>
-      <c r="M43" s="3">
+      <c r="S43" s="3">
         <v>888687</v>
       </c>
-      <c r="N43" s="3">
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3">
         <v>42858</v>
       </c>
-      <c r="O43" s="3">
+      <c r="W43" s="3">
         <v>40546</v>
       </c>
-      <c r="P43" s="3">
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3">
         <v>31460</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="AA43" s="3">
         <v>29489</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2984,38 +3473,48 @@
       <c r="G44" s="3">
         <v>47296</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
         <v>1449</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1356</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3">
         <v>1628</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>1306</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3">
         <v>708544</v>
       </c>
-      <c r="M44" s="3">
+      <c r="S44" s="3">
         <v>739214</v>
       </c>
-      <c r="N44" s="3">
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3">
         <v>27289</v>
       </c>
-      <c r="O44" s="3">
+      <c r="W44" s="3">
         <v>25866</v>
       </c>
-      <c r="P44" s="3">
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3">
         <v>24064</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="AA44" s="3">
         <v>22377</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -3034,38 +3533,48 @@
       <c r="G45" s="3">
         <v>14376</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3">
         <v>544</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>505</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3">
         <v>526</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>490</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3">
         <v>185157</v>
       </c>
-      <c r="M45" s="3">
+      <c r="S45" s="3">
         <v>195522</v>
       </c>
-      <c r="N45" s="3">
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3">
         <v>7754</v>
       </c>
-      <c r="O45" s="3">
+      <c r="W45" s="3">
         <v>7541</v>
       </c>
-      <c r="P45" s="3">
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3">
         <v>6543</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="AA45" s="3">
         <v>6346</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -3084,38 +3593,48 @@
       <c r="G46" s="3">
         <v>118052</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
         <v>4456</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3808</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3">
         <v>4065</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>3434</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3">
         <v>1036577</v>
       </c>
-      <c r="M46" s="3">
+      <c r="S46" s="3">
         <v>1036406</v>
       </c>
-      <c r="N46" s="3">
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3">
         <v>53568</v>
       </c>
-      <c r="O46" s="3">
+      <c r="W46" s="3">
         <v>51378</v>
       </c>
-      <c r="P46" s="3">
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3">
         <v>42267</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="AA46" s="3">
         <v>39017</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -3134,38 +3653,48 @@
       <c r="G47" s="3">
         <v>69127</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3">
         <v>3364</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>3263</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3">
         <v>2883</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>2442</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3">
         <v>793979</v>
       </c>
-      <c r="M47" s="3">
+      <c r="S47" s="3">
         <v>820516</v>
       </c>
-      <c r="N47" s="3">
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3">
         <v>41165</v>
       </c>
-      <c r="O47" s="3">
+      <c r="W47" s="3">
         <v>38758</v>
       </c>
-      <c r="P47" s="3">
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3">
         <v>30989</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="AA47" s="3">
         <v>28704</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -3184,38 +3713,48 @@
       <c r="G48" s="3">
         <v>91900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3">
         <v>3331</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3354</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3">
         <v>3435</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>2965</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3">
         <v>1572300</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N48" s="3">
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3">
         <v>85589</v>
       </c>
-      <c r="O48" s="3">
+      <c r="W48" s="3">
         <v>81734</v>
       </c>
-      <c r="P48" s="3">
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3">
         <v>62554</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="AA48" s="3">
         <v>58451</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -3234,38 +3773,48 @@
       <c r="G49" s="3">
         <v>144644</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3">
         <v>5671</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5428</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3">
         <v>4348</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>3578</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3">
         <v>1492906</v>
       </c>
-      <c r="M49" s="3">
+      <c r="S49" s="3">
         <v>1494061</v>
       </c>
-      <c r="N49" s="3">
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3">
         <v>59074</v>
       </c>
-      <c r="O49" s="3">
+      <c r="W49" s="3">
         <v>55861</v>
       </c>
-      <c r="P49" s="3">
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3">
         <v>38500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="AA49" s="3">
         <v>36110</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -3284,38 +3833,48 @@
       <c r="G50" s="3">
         <v>39698</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
         <v>1994</v>
       </c>
-      <c r="I50" s="3">
+      <c r="K50" s="3">
         <v>1824</v>
       </c>
-      <c r="J50" s="3">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3">
         <v>1705</v>
       </c>
-      <c r="K50" s="3">
+      <c r="O50" s="3">
         <v>1423</v>
       </c>
-      <c r="L50" s="3">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3">
         <v>578441</v>
       </c>
-      <c r="M50" s="3">
+      <c r="S50" s="3">
         <v>614939</v>
       </c>
-      <c r="N50" s="3">
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3">
         <v>23549</v>
       </c>
-      <c r="O50" s="3">
+      <c r="W50" s="3">
         <v>21397</v>
       </c>
-      <c r="P50" s="3">
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3">
         <v>18265</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="AA50" s="3">
         <v>16922</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -3334,38 +3893,48 @@
       <c r="G51" s="3">
         <v>63854</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3">
         <v>3153</v>
       </c>
-      <c r="I51" s="3">
+      <c r="K51" s="3">
         <v>2960</v>
       </c>
-      <c r="J51" s="3">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3">
         <v>2784</v>
       </c>
-      <c r="K51" s="3">
+      <c r="O51" s="3">
         <v>2428</v>
       </c>
-      <c r="L51" s="3">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3">
         <v>1085780</v>
       </c>
-      <c r="M51" s="3">
+      <c r="S51" s="3">
         <v>1100631</v>
       </c>
-      <c r="N51" s="3">
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3">
         <v>47759</v>
       </c>
-      <c r="O51" s="3">
+      <c r="W51" s="3">
         <v>45673</v>
       </c>
-      <c r="P51" s="3">
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3">
         <v>34713</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="AA51" s="3">
         <v>33271</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -3384,38 +3953,48 @@
       <c r="G52" s="3">
         <v>89043</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
         <v>5209</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5139</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3">
         <v>4795</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>3720</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3">
         <v>1539971</v>
       </c>
-      <c r="M52" s="3">
+      <c r="S52" s="3">
         <v>1538724</v>
       </c>
-      <c r="N52" s="3">
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3">
         <v>91191</v>
       </c>
-      <c r="O52" s="3">
+      <c r="W52" s="3">
         <v>87524</v>
       </c>
-      <c r="P52" s="3">
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3">
         <v>57434</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="AA52" s="3">
         <v>53548</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -3434,38 +4013,48 @@
       <c r="G53" s="3">
         <v>126441</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3">
         <v>410928</v>
       </c>
-      <c r="M53" s="3">
+      <c r="S53" s="3">
         <v>390155</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA53" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -3484,38 +4073,48 @@
       <c r="G54" s="3">
         <v>632997</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
         <v>21021</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>20336</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3">
         <v>19854</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>15351</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3">
+      <c r="S54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3">
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3">
+      <c r="W54" s="3">
         <v>0</v>
       </c>
-      <c r="P54" s="3">
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="AA54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -3534,38 +4133,48 @@
       <c r="G55" s="3">
         <v>228904</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3">
         <v>9517</v>
       </c>
-      <c r="I55" s="3">
+      <c r="K55" s="3">
         <v>9038</v>
       </c>
-      <c r="J55" s="3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3">
         <v>8015</v>
       </c>
-      <c r="K55" s="3">
+      <c r="O55" s="3">
         <v>6849</v>
       </c>
-      <c r="L55" s="3">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3">
         <v>1211797</v>
       </c>
-      <c r="M55" s="3">
+      <c r="S55" s="3">
         <v>1244297</v>
       </c>
-      <c r="N55" s="3">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3">
         <v>64616</v>
       </c>
-      <c r="O55" s="3">
+      <c r="W55" s="3">
         <v>62758</v>
       </c>
-      <c r="P55" s="3">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3">
         <v>41943</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="AA55" s="3">
         <v>39274</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -3584,38 +4193,48 @@
       <c r="G56" s="3">
         <v>64697</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3">
         <v>3145</v>
       </c>
-      <c r="I56" s="3">
+      <c r="K56" s="3">
         <v>3146</v>
       </c>
-      <c r="J56" s="3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3">
         <v>2626</v>
       </c>
-      <c r="K56" s="3">
+      <c r="O56" s="3">
         <v>2218</v>
       </c>
-      <c r="L56" s="3">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3">
         <v>802224</v>
       </c>
-      <c r="M56" s="3">
+      <c r="S56" s="3">
         <v>824053</v>
       </c>
-      <c r="N56" s="3">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3">
         <v>45301</v>
       </c>
-      <c r="O56" s="3">
+      <c r="W56" s="3">
         <v>42847</v>
       </c>
-      <c r="P56" s="3">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3">
         <v>29443</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="AA56" s="3">
         <v>27860</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -3634,38 +4253,48 @@
       <c r="G57" s="3">
         <v>73728</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3">
         <v>2341</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2210</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3">
         <v>2159</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>1873</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3">
         <v>842496</v>
       </c>
-      <c r="M57" s="3">
+      <c r="S57" s="3">
         <v>827445</v>
       </c>
-      <c r="N57" s="3">
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3">
         <v>40718</v>
       </c>
-      <c r="O57" s="3">
+      <c r="W57" s="3">
         <v>37983</v>
       </c>
-      <c r="P57" s="3">
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3">
         <v>32529</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="AA57" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -3684,38 +4313,48 @@
       <c r="G58" s="3">
         <v>111368</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3">
         <v>5869</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>4744</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3">
         <v>3118</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>3787</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3">
         <v>702101</v>
       </c>
-      <c r="M58" s="3">
+      <c r="S58" s="3">
         <v>664841</v>
       </c>
-      <c r="N58" s="3">
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3">
         <v>82719</v>
       </c>
-      <c r="O58" s="3">
+      <c r="W58" s="3">
         <v>30519</v>
       </c>
-      <c r="P58" s="3">
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3">
         <v>17925</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="AA58" s="3">
         <v>19062</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -3734,38 +4373,48 @@
       <c r="G59" s="3">
         <v>19870</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M59" s="3" t="s">
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S59" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O59" s="3" t="s">
+      <c r="W59" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AA59" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -3784,38 +4433,48 @@
       <c r="G60" s="3">
         <v>110102</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3">
         <v>5587</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5322</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3">
         <v>4502</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>4096</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3">
         <v>1543793</v>
       </c>
-      <c r="M60" s="3">
+      <c r="S60" s="3">
         <v>1558983</v>
       </c>
-      <c r="N60" s="3">
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3">
         <v>75629</v>
       </c>
-      <c r="O60" s="3">
+      <c r="W60" s="3">
         <v>73127</v>
       </c>
-      <c r="P60" s="3">
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3">
         <v>49324</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="AA60" s="3">
         <v>46592</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -3834,38 +4493,48 @@
       <c r="G61" s="3">
         <v>80288</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3">
         <v>2041</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1983</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3">
         <v>1640</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>1528</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3">
         <v>896704</v>
       </c>
-      <c r="M61" s="3">
+      <c r="S61" s="3">
         <v>1085125</v>
       </c>
-      <c r="N61" s="3">
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3">
         <v>43717</v>
       </c>
-      <c r="O61" s="3">
+      <c r="W61" s="3">
         <v>42289</v>
       </c>
-      <c r="P61" s="3">
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3">
         <v>36826</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="AA61" s="3">
         <v>34238</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -3884,38 +4553,48 @@
       <c r="G62" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
       <c r="J62" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
       <c r="N62" s="3" t="s">
         <v>109</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -3934,38 +4613,48 @@
       <c r="G63" s="3">
         <v>70997</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
         <v>3783</v>
       </c>
-      <c r="I63" s="3">
+      <c r="K63" s="3">
         <v>3649</v>
       </c>
-      <c r="J63" s="3">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3">
         <v>2718</v>
       </c>
-      <c r="K63" s="3">
+      <c r="O63" s="3">
         <v>2400</v>
       </c>
-      <c r="L63" s="3">
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3">
         <v>1194478</v>
       </c>
-      <c r="M63" s="3">
+      <c r="S63" s="3">
         <v>1298638</v>
       </c>
-      <c r="N63" s="3">
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3">
         <v>67738</v>
       </c>
-      <c r="O63" s="3">
+      <c r="W63" s="3">
         <v>64780</v>
       </c>
-      <c r="P63" s="3">
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3">
         <v>41132</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="AA63" s="3">
         <v>39964</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -3984,38 +4673,48 @@
       <c r="G64" s="3">
         <v>174051</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
         <v>7521</v>
       </c>
-      <c r="I64" s="3">
+      <c r="K64" s="3">
         <v>7520</v>
       </c>
-      <c r="J64" s="3">
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3">
         <v>6134</v>
       </c>
-      <c r="K64" s="3">
+      <c r="O64" s="3">
         <v>5450</v>
       </c>
-      <c r="L64" s="3">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3">
         <v>1325024</v>
       </c>
-      <c r="M64" s="3">
+      <c r="S64" s="3">
         <v>1276671</v>
       </c>
-      <c r="N64" s="3">
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3">
         <v>56755</v>
       </c>
-      <c r="O64" s="3">
+      <c r="W64" s="3">
         <v>53395</v>
       </c>
-      <c r="P64" s="3">
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3">
         <v>38313</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="AA64" s="3">
         <v>36417</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -4034,38 +4733,48 @@
       <c r="G65" s="3">
         <v>102204</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3">
         <v>3781</v>
       </c>
-      <c r="I65" s="3">
+      <c r="K65" s="3">
         <v>3605</v>
       </c>
-      <c r="J65" s="3">
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3">
         <v>3120</v>
       </c>
-      <c r="K65" s="3">
+      <c r="O65" s="3">
         <v>2757</v>
       </c>
-      <c r="L65" s="3">
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3">
         <v>1245667</v>
       </c>
-      <c r="M65" s="3">
+      <c r="S65" s="3">
         <v>1217671</v>
       </c>
-      <c r="N65" s="3">
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3">
         <v>52054</v>
       </c>
-      <c r="O65" s="3">
+      <c r="W65" s="3">
         <v>49258</v>
       </c>
-      <c r="P65" s="3">
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3">
         <v>36744</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="AA65" s="3">
         <v>33386</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -4084,38 +4793,48 @@
       <c r="G66" s="3">
         <v>47109</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3">
         <v>2020</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1971</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3">
         <v>1487</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>1296</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="3">
+      <c r="S66" s="3">
         <v>0</v>
       </c>
-      <c r="N66" s="3">
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3">
         <v>0</v>
       </c>
-      <c r="O66" s="3">
+      <c r="W66" s="3">
         <v>0</v>
       </c>
-      <c r="P66" s="3">
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="AA66" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -4134,38 +4853,48 @@
       <c r="G67" s="3">
         <v>211134</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3">
         <v>6677</v>
       </c>
-      <c r="I67" s="3">
+      <c r="K67" s="3">
         <v>6240</v>
       </c>
-      <c r="J67" s="3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3">
         <v>6860</v>
       </c>
-      <c r="K67" s="3">
+      <c r="O67" s="3">
         <v>4096</v>
       </c>
-      <c r="L67" s="3">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3">
         <v>0</v>
       </c>
-      <c r="M67" s="3">
+      <c r="S67" s="3">
         <v>0</v>
       </c>
-      <c r="N67" s="3">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3">
         <v>0</v>
       </c>
-      <c r="O67" s="3">
+      <c r="W67" s="3">
         <v>0</v>
       </c>
-      <c r="P67" s="3">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3">
         <v>0</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="AA67" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -4184,38 +4913,48 @@
       <c r="G68" s="3">
         <v>116542</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3">
         <v>4121</v>
       </c>
-      <c r="I68" s="3">
+      <c r="K68" s="3">
         <v>3647</v>
       </c>
-      <c r="J68" s="3">
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3">
         <v>2910</v>
       </c>
-      <c r="K68" s="3">
+      <c r="O68" s="3">
         <v>2445</v>
       </c>
-      <c r="L68" s="3">
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3">
         <v>1238444</v>
       </c>
-      <c r="M68" s="3">
+      <c r="S68" s="3">
         <v>1228633</v>
       </c>
-      <c r="N68" s="3">
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3">
         <v>53867</v>
       </c>
-      <c r="O68" s="3">
+      <c r="W68" s="3">
         <v>50807</v>
       </c>
-      <c r="P68" s="3">
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3">
         <v>35105</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="AA68" s="3">
         <v>33041</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -4234,38 +4973,48 @@
       <c r="G69" s="3">
         <v>77800</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3">
         <v>3478</v>
       </c>
-      <c r="I69" s="3">
+      <c r="K69" s="3">
         <v>3363</v>
       </c>
-      <c r="J69" s="3">
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3">
         <v>3063</v>
       </c>
-      <c r="K69" s="3">
+      <c r="O69" s="3">
         <v>2516</v>
       </c>
-      <c r="L69" s="3">
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3">
         <v>510421</v>
       </c>
-      <c r="M69" s="3">
+      <c r="S69" s="3">
         <v>569041</v>
       </c>
-      <c r="N69" s="3">
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3">
         <v>19559</v>
       </c>
-      <c r="O69" s="3">
+      <c r="W69" s="3">
         <v>18866</v>
       </c>
-      <c r="P69" s="3">
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3">
         <v>15186</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="AA69" s="3">
         <v>15311</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -4284,38 +5033,48 @@
       <c r="G70" s="3">
         <v>4170825</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3">
         <v>168544</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>159761</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3">
         <v>142575</v>
       </c>
-      <c r="K70" s="3">
+      <c r="O70" s="3">
         <v>120039</v>
       </c>
-      <c r="L70" s="3">
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3">
         <v>33163166</v>
       </c>
-      <c r="M70" s="3">
+      <c r="S70" s="3">
         <v>83820150</v>
       </c>
-      <c r="N70" s="3">
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3">
         <v>1594402</v>
       </c>
-      <c r="O70" s="3">
+      <c r="W70" s="3">
         <v>1519144</v>
       </c>
-      <c r="P70" s="3">
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3">
         <v>1128956</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="AA70" s="3">
         <v>1056689</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -4334,38 +5093,48 @@
       <c r="G71" s="3">
         <v>12497</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
       <c r="J71" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3">
         <v>1332893</v>
       </c>
-      <c r="M71" s="3">
+      <c r="S71" s="3">
         <v>1285820</v>
       </c>
-      <c r="N71" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P71" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q71" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA71" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -4384,38 +5153,48 @@
       <c r="G72" s="3">
         <v>7504265</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
         <v>271615</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>252638</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3">
         <v>215701</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>182696</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3">
         <v>51805207</v>
       </c>
-      <c r="M72" s="3">
+      <c r="S72" s="3">
         <v>52239052</v>
       </c>
-      <c r="N72" s="3">
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3">
         <v>2269521</v>
       </c>
-      <c r="O72" s="3">
+      <c r="W72" s="3">
         <v>2157977</v>
       </c>
-      <c r="P72" s="3">
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3">
         <v>1582135</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="AA72" s="3">
         <v>1482424</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -4434,38 +5213,48 @@
       <c r="G73" s="3">
         <v>106196</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
         <v>2916</v>
       </c>
-      <c r="I73" s="3">
+      <c r="K73" s="3">
         <v>2609</v>
       </c>
-      <c r="J73" s="3">
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3">
         <v>2847</v>
       </c>
-      <c r="K73" s="3">
+      <c r="O73" s="3">
         <v>2264</v>
       </c>
-      <c r="L73" s="3">
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3">
         <v>475857</v>
       </c>
-      <c r="M73" s="3">
+      <c r="S73" s="3">
         <v>374918</v>
       </c>
-      <c r="N73" s="3">
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3">
         <v>12623</v>
       </c>
-      <c r="O73" s="3">
+      <c r="W73" s="3">
         <v>12278</v>
       </c>
-      <c r="P73" s="3">
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3">
         <v>9989</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="AA73" s="3">
         <v>6561</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -4484,38 +5273,48 @@
       <c r="G74" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
       <c r="J74" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
       <c r="N74" s="3" t="s">
         <v>109</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P74" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q74" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -4534,38 +5333,48 @@
       <c r="G75" s="3">
         <v>3703</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
         <v>173</v>
       </c>
-      <c r="I75" s="3">
+      <c r="K75" s="3">
         <v>179</v>
       </c>
-      <c r="J75" s="3">
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3">
         <v>142</v>
       </c>
-      <c r="K75" s="3">
+      <c r="O75" s="3">
         <v>100</v>
       </c>
-      <c r="L75" s="3">
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3">
         <v>892020</v>
       </c>
-      <c r="M75" s="3">
+      <c r="S75" s="3">
         <v>311886</v>
       </c>
-      <c r="N75" s="3">
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3">
         <v>9078</v>
       </c>
-      <c r="O75" s="3">
+      <c r="W75" s="3">
         <v>8071</v>
       </c>
-      <c r="P75" s="3">
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3">
         <v>8776</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="AA75" s="3">
         <v>7140</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -4584,38 +5393,48 @@
       <c r="G76" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
       <c r="N76" s="3" t="s">
         <v>109</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -4634,38 +5453,48 @@
       <c r="G77" s="3">
         <v>10140</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
         <v>498</v>
       </c>
-      <c r="I77" s="3">
+      <c r="K77" s="3">
         <v>448</v>
       </c>
-      <c r="J77" s="3">
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3">
         <v>325</v>
       </c>
-      <c r="K77" s="3">
+      <c r="O77" s="3">
         <v>252</v>
       </c>
-      <c r="L77" s="3">
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3">
         <v>164230</v>
       </c>
-      <c r="M77" s="3">
+      <c r="S77" s="3">
         <v>151446</v>
       </c>
-      <c r="N77" s="3">
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3">
         <v>5123</v>
       </c>
-      <c r="O77" s="3">
+      <c r="W77" s="3">
         <v>4712</v>
       </c>
-      <c r="P77" s="3">
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3">
         <v>2408</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="AA77" s="3">
         <v>2268</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -4684,38 +5513,48 @@
       <c r="G78" s="3">
         <v>85607</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
         <v>4456</v>
       </c>
-      <c r="I78" s="3">
+      <c r="K78" s="3">
         <v>4465</v>
       </c>
-      <c r="J78" s="3">
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3">
         <v>3381</v>
       </c>
-      <c r="K78" s="3">
+      <c r="O78" s="3">
         <v>2912</v>
       </c>
-      <c r="L78" s="3">
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3">
         <v>1075863</v>
       </c>
-      <c r="M78" s="3">
+      <c r="S78" s="3">
         <v>1055279</v>
       </c>
-      <c r="N78" s="3">
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3">
         <v>60606</v>
       </c>
-      <c r="O78" s="3">
+      <c r="W78" s="3">
         <v>56877</v>
       </c>
-      <c r="P78" s="3">
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3">
         <v>35972</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="AA78" s="3">
         <v>32313</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -4734,38 +5573,48 @@
       <c r="G79" s="3">
         <v>21386</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
       <c r="J79" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3">
         <v>428235</v>
       </c>
-      <c r="M79" s="3">
+      <c r="S79" s="3">
         <v>393703</v>
       </c>
-      <c r="N79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q79" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA79" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -4784,38 +5633,48 @@
       <c r="G80" s="3">
         <v>24742</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
         <v>997</v>
       </c>
-      <c r="I80" s="3">
+      <c r="K80" s="3">
         <v>888</v>
       </c>
-      <c r="J80" s="3">
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3">
         <v>635</v>
       </c>
-      <c r="K80" s="3">
+      <c r="O80" s="3">
         <v>511</v>
       </c>
-      <c r="L80" s="3">
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3">
         <v>522711</v>
       </c>
-      <c r="M80" s="3">
+      <c r="S80" s="3">
         <v>503721</v>
       </c>
-      <c r="N80" s="3">
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3">
         <v>31300</v>
       </c>
-      <c r="O80" s="3">
+      <c r="W80" s="3">
         <v>29825</v>
       </c>
-      <c r="P80" s="3">
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3">
         <v>19341</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="AA80" s="3">
         <v>18437</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -4834,38 +5693,48 @@
       <c r="G81" s="3">
         <v>67162</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
         <v>3441</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3385</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3">
         <v>2440</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>2075</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3">
         <v>456374</v>
       </c>
-      <c r="M81" s="3">
+      <c r="S81" s="3">
         <v>423180</v>
       </c>
-      <c r="N81" s="3">
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3">
         <v>16872</v>
       </c>
-      <c r="O81" s="3">
+      <c r="W81" s="3">
         <v>15710</v>
       </c>
-      <c r="P81" s="3">
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3">
         <v>11426</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="AA81" s="3">
         <v>10088</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -4884,38 +5753,48 @@
       <c r="G82" s="3">
         <v>124530</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
         <v>3142</v>
       </c>
-      <c r="I82" s="3">
+      <c r="K82" s="3">
         <v>4895</v>
       </c>
-      <c r="J82" s="3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3">
         <v>2755</v>
       </c>
-      <c r="K82" s="3">
+      <c r="O82" s="3">
         <v>2396</v>
       </c>
-      <c r="L82" s="3">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3">
         <v>436324</v>
       </c>
-      <c r="M82" s="3">
+      <c r="S82" s="3">
         <v>377503</v>
       </c>
-      <c r="N82" s="3">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3">
         <v>18128</v>
       </c>
-      <c r="O82" s="3">
+      <c r="W82" s="3">
         <v>14393</v>
       </c>
-      <c r="P82" s="3">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3">
         <v>8634</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="AA82" s="3">
         <v>8998</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -4934,38 +5813,48 @@
       <c r="G83" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
         <v>932</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>957</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3">
         <v>551</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>450</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3">
         <v>31845</v>
       </c>
-      <c r="M83" s="3">
+      <c r="S83" s="3">
         <v>23030</v>
       </c>
-      <c r="N83" s="3">
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3">
         <v>967</v>
       </c>
-      <c r="O83" s="3">
+      <c r="W83" s="3">
         <v>851</v>
       </c>
-      <c r="P83" s="3">
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3">
         <v>501</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="AA83" s="3">
         <v>339</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -4984,38 +5873,48 @@
       <c r="G84" s="3">
         <v>33263</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
         <v>1405</v>
       </c>
-      <c r="I84" s="3">
+      <c r="K84" s="3">
         <v>1344</v>
       </c>
-      <c r="J84" s="3">
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3">
         <v>1258</v>
       </c>
-      <c r="K84" s="3">
+      <c r="O84" s="3">
         <v>1061</v>
       </c>
-      <c r="L84" s="3">
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3">
         <v>398637</v>
       </c>
-      <c r="M84" s="3">
+      <c r="S84" s="3">
         <v>358669</v>
       </c>
-      <c r="N84" s="3">
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3">
         <v>13888</v>
       </c>
-      <c r="O84" s="3">
+      <c r="W84" s="3">
         <v>12232</v>
       </c>
-      <c r="P84" s="3">
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3">
         <v>9909</v>
       </c>
-      <c r="Q84" s="3">
+      <c r="AA84" s="3">
         <v>9425</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -5034,38 +5933,48 @@
       <c r="G85" s="3">
         <v>498889</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
         <v>17960</v>
       </c>
-      <c r="I85" s="3">
+      <c r="K85" s="3">
         <v>19170</v>
       </c>
-      <c r="J85" s="3">
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3">
         <v>14334</v>
       </c>
-      <c r="K85" s="3">
+      <c r="O85" s="3">
         <v>12024</v>
       </c>
-      <c r="L85" s="3">
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3">
         <v>4321096</v>
       </c>
-      <c r="M85" s="3">
+      <c r="S85" s="3">
         <v>3978337</v>
       </c>
-      <c r="N85" s="3">
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3">
         <v>168581</v>
       </c>
-      <c r="O85" s="3">
+      <c r="W85" s="3">
         <v>154803</v>
       </c>
-      <c r="P85" s="3">
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3">
         <v>106956</v>
       </c>
-      <c r="Q85" s="3">
+      <c r="AA85" s="3">
         <v>93564</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -5084,38 +5993,48 @@
       <c r="G86" s="3">
         <v>17290</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
         <v>1002</v>
       </c>
-      <c r="I86" s="3">
+      <c r="K86" s="3">
         <v>827</v>
       </c>
-      <c r="J86" s="3">
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3">
         <v>553</v>
       </c>
-      <c r="K86" s="3">
+      <c r="O86" s="3">
         <v>455</v>
       </c>
-      <c r="L86" s="3">
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3">
         <v>55908</v>
       </c>
-      <c r="M86" s="3">
+      <c r="S86" s="3">
         <v>36238</v>
       </c>
-      <c r="N86" s="3">
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3">
         <v>2658</v>
       </c>
-      <c r="O86" s="3">
+      <c r="W86" s="3">
         <v>2143</v>
       </c>
-      <c r="P86" s="3">
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3">
         <v>1855</v>
       </c>
-      <c r="Q86" s="3">
+      <c r="AA86" s="3">
         <v>1142</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -5134,38 +6053,48 @@
       <c r="G87" s="3">
         <v>36850</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
         <v>1535</v>
       </c>
-      <c r="I87" s="3">
+      <c r="K87" s="3">
         <v>1541</v>
       </c>
-      <c r="J87" s="3">
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3">
         <v>2002</v>
       </c>
-      <c r="K87" s="3">
+      <c r="O87" s="3">
         <v>1432</v>
       </c>
-      <c r="L87" s="3">
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3">
         <v>339017</v>
       </c>
-      <c r="M87" s="3">
+      <c r="S87" s="3">
         <v>307732</v>
       </c>
-      <c r="N87" s="3">
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3">
         <v>15288</v>
       </c>
-      <c r="O87" s="3">
+      <c r="W87" s="3">
         <v>14396</v>
       </c>
-      <c r="P87" s="3">
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3">
         <v>12124</v>
       </c>
-      <c r="Q87" s="3">
+      <c r="AA87" s="3">
         <v>11058</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -5184,38 +6113,48 @@
       <c r="G88" s="3">
         <v>28428</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
         <v>1299</v>
       </c>
-      <c r="I88" s="3">
+      <c r="K88" s="3">
         <v>1267</v>
       </c>
-      <c r="J88" s="3">
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3">
         <v>1390</v>
       </c>
-      <c r="K88" s="3">
+      <c r="O88" s="3">
         <v>994</v>
       </c>
-      <c r="L88" s="3">
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3">
         <v>353980</v>
       </c>
-      <c r="M88" s="3">
+      <c r="S88" s="3">
         <v>339362</v>
       </c>
-      <c r="N88" s="3">
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3">
         <v>11294</v>
       </c>
-      <c r="O88" s="3">
+      <c r="W88" s="3">
         <v>10057</v>
       </c>
-      <c r="P88" s="3">
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3">
         <v>9485</v>
       </c>
-      <c r="Q88" s="3">
+      <c r="AA88" s="3">
         <v>9135</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -5234,38 +6173,48 @@
       <c r="G89" s="3">
         <v>42418</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3">
         <v>2067</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2211</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3">
         <v>1854</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>1770</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3">
         <v>269894</v>
       </c>
-      <c r="M89" s="3">
+      <c r="S89" s="3">
         <v>237212</v>
       </c>
-      <c r="N89" s="3">
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3">
         <v>10936</v>
       </c>
-      <c r="O89" s="3">
+      <c r="W89" s="3">
         <v>10454</v>
       </c>
-      <c r="P89" s="3">
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3">
         <v>9466</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="AA89" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -5284,38 +6233,48 @@
       <c r="G90" s="3">
         <v>15026</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3">
         <v>850</v>
       </c>
-      <c r="I90" s="3">
+      <c r="K90" s="3">
         <v>804</v>
       </c>
-      <c r="J90" s="3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3">
         <v>1029</v>
       </c>
-      <c r="K90" s="3">
+      <c r="O90" s="3">
         <v>399</v>
       </c>
-      <c r="L90" s="3">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3">
         <v>99224</v>
       </c>
-      <c r="M90" s="3">
+      <c r="S90" s="3">
         <v>80256</v>
       </c>
-      <c r="N90" s="3">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3">
         <v>3521</v>
       </c>
-      <c r="O90" s="3">
+      <c r="W90" s="3">
         <v>3291</v>
       </c>
-      <c r="P90" s="3">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3">
         <v>1491</v>
       </c>
-      <c r="Q90" s="3">
+      <c r="AA90" s="3">
         <v>1350</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -5334,38 +6293,48 @@
       <c r="G91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3">
         <v>1674</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>1638</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3">
         <v>1482</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>1174</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3">
         <v>43288</v>
       </c>
-      <c r="O91" s="3">
+      <c r="W91" s="3">
         <v>41263</v>
       </c>
-      <c r="P91" s="3">
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3">
         <v>28751</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="AA91" s="3">
         <v>25932</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -5384,38 +6353,48 @@
       <c r="G92" s="3">
         <v>74572</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I92" s="3">
+      <c r="K92" s="3">
         <v>2476</v>
       </c>
-      <c r="J92" s="3">
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3">
         <v>2339</v>
       </c>
-      <c r="K92" s="3">
+      <c r="O92" s="3">
         <v>2119</v>
       </c>
-      <c r="L92" s="3">
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3">
         <v>1169914</v>
       </c>
-      <c r="M92" s="3">
+      <c r="S92" s="3">
         <v>1093795</v>
       </c>
-      <c r="N92" s="3">
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3">
         <v>53700</v>
       </c>
-      <c r="O92" s="3">
+      <c r="W92" s="3">
         <v>52529</v>
       </c>
-      <c r="P92" s="3">
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3">
         <v>40747</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="AA92" s="3">
         <v>29891</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -5434,38 +6413,48 @@
       <c r="G93" s="3">
         <v>4581</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
         <v>241</v>
       </c>
-      <c r="I93" s="3">
+      <c r="K93" s="3">
         <v>217</v>
       </c>
-      <c r="J93" s="3">
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3">
         <v>161</v>
       </c>
-      <c r="K93" s="3">
+      <c r="O93" s="3">
         <v>141</v>
       </c>
-      <c r="L93" s="3">
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3">
         <v>128812</v>
       </c>
-      <c r="M93" s="3">
+      <c r="S93" s="3">
         <v>122765</v>
       </c>
-      <c r="N93" s="3">
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3">
         <v>5709</v>
       </c>
-      <c r="O93" s="3">
+      <c r="W93" s="3">
         <v>5575</v>
       </c>
-      <c r="P93" s="3">
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3">
         <v>3401</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="AA93" s="3">
         <v>3451</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -5484,38 +6473,48 @@
       <c r="G94" s="3">
         <v>219165</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3">
         <v>11307</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>10981</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3">
         <v>10810</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>8484</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3">
         <v>2416749</v>
       </c>
-      <c r="M94" s="3">
+      <c r="S94" s="3">
         <v>2217360</v>
       </c>
-      <c r="N94" s="3">
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3">
         <v>146391</v>
       </c>
-      <c r="O94" s="3">
+      <c r="W94" s="3">
         <v>139708</v>
       </c>
-      <c r="P94" s="3">
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3">
         <v>106820</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="AA94" s="3">
         <v>90659</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -5534,38 +6533,48 @@
       <c r="G95" s="3">
         <v>57069</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3">
         <v>3127</v>
       </c>
-      <c r="I95" s="3">
+      <c r="K95" s="3">
         <v>2527</v>
       </c>
-      <c r="J95" s="3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3">
         <v>2242</v>
       </c>
-      <c r="K95" s="3">
+      <c r="O95" s="3">
         <v>2075</v>
       </c>
-      <c r="L95" s="3">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3">
         <v>429213</v>
       </c>
-      <c r="M95" s="3">
+      <c r="S95" s="3">
         <v>388321</v>
       </c>
-      <c r="N95" s="3">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3">
         <v>13017</v>
       </c>
-      <c r="O95" s="3">
+      <c r="W95" s="3">
         <v>9816</v>
       </c>
-      <c r="P95" s="3">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3">
         <v>8718</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="AA95" s="3">
         <v>6524</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -5584,38 +6593,48 @@
       <c r="G96" s="3">
         <v>17045</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3">
         <v>828</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>759</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3">
         <v>553</v>
       </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
         <v>418</v>
       </c>
-      <c r="L96" s="3">
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3">
         <v>183673</v>
       </c>
-      <c r="M96" s="3">
+      <c r="S96" s="3">
         <v>163500</v>
       </c>
-      <c r="N96" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O96" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P96" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q96" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -5634,38 +6653,48 @@
       <c r="G97" s="3">
         <v>56867</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
       <c r="J97" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3">
         <v>480014</v>
       </c>
-      <c r="M97" s="3">
+      <c r="S97" s="3">
         <v>393752</v>
       </c>
-      <c r="N97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P97" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q97" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA97" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -5684,38 +6713,48 @@
       <c r="G98" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
       <c r="J98" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
       <c r="N98" s="3" t="s">
         <v>109</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P98" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q98" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -5734,38 +6773,48 @@
       <c r="G99" s="3">
         <v>28061</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3">
         <v>1414</v>
       </c>
-      <c r="I99" s="3">
+      <c r="K99" s="3">
         <v>1375</v>
       </c>
-      <c r="J99" s="3">
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3">
         <v>1043</v>
       </c>
-      <c r="K99" s="3">
+      <c r="O99" s="3">
         <v>884</v>
       </c>
-      <c r="L99" s="3">
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3">
         <v>556103</v>
       </c>
-      <c r="M99" s="3">
+      <c r="S99" s="3">
         <v>458442</v>
       </c>
-      <c r="N99" s="3">
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3">
         <v>16768</v>
       </c>
-      <c r="O99" s="3">
+      <c r="W99" s="3">
         <v>14038</v>
       </c>
-      <c r="P99" s="3">
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3">
         <v>10885</v>
       </c>
-      <c r="Q99" s="3">
+      <c r="AA99" s="3">
         <v>8833</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -5784,38 +6833,48 @@
       <c r="G100" s="3">
         <v>79159</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
       <c r="J100" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3">
         <v>796744</v>
       </c>
-      <c r="M100" s="3">
+      <c r="S100" s="3">
         <v>659016</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5834,38 +6893,48 @@
       <c r="G101" s="3">
         <v>13775</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3">
         <v>980</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>946</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3">
         <v>669</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>505</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3">
         <v>284416</v>
       </c>
-      <c r="M101" s="3">
+      <c r="S101" s="3">
         <v>255056</v>
       </c>
-      <c r="N101" s="3">
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3">
         <v>9623</v>
       </c>
-      <c r="O101" s="3">
+      <c r="W101" s="3">
         <v>8222</v>
       </c>
-      <c r="P101" s="3">
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3">
         <v>5885</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="AA101" s="3">
         <v>4565</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5884,38 +6953,48 @@
       <c r="G102" s="3">
         <v>27213</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3">
         <v>1367</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1291</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3">
         <v>798</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>797</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3">
         <v>352357</v>
       </c>
-      <c r="M102" s="3">
+      <c r="S102" s="3">
         <v>316266</v>
       </c>
-      <c r="N102" s="3">
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3">
         <v>8707</v>
       </c>
-      <c r="O102" s="3">
+      <c r="W102" s="3">
         <v>8640</v>
       </c>
-      <c r="P102" s="3">
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3">
         <v>7084</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="AA102" s="3">
         <v>6472</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -5934,38 +7013,48 @@
       <c r="G103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
       <c r="J103" s="3" t="s">
         <v>109</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
       <c r="N103" s="3" t="s">
         <v>109</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="P103" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q103" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA103" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -5984,38 +7073,48 @@
       <c r="G104" s="3">
         <v>279189</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3">
         <v>7716</v>
       </c>
-      <c r="I104" s="3">
+      <c r="K104" s="3">
         <v>6898</v>
       </c>
-      <c r="J104" s="3">
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3">
         <v>5305</v>
       </c>
-      <c r="K104" s="3">
+      <c r="O104" s="3">
         <v>4679</v>
       </c>
-      <c r="L104" s="3">
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3">
         <v>3082528</v>
       </c>
-      <c r="M104" s="3">
+      <c r="S104" s="3">
         <v>2634353</v>
       </c>
-      <c r="N104" s="3">
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3">
         <v>48115</v>
       </c>
-      <c r="O104" s="3">
+      <c r="W104" s="3">
         <v>40716</v>
       </c>
-      <c r="P104" s="3">
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3">
         <v>32522</v>
       </c>
-      <c r="Q104" s="3">
+      <c r="AA104" s="3">
         <v>26394</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6034,38 +7133,48 @@
       <c r="G105" s="3">
         <v>997243</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3">
         <v>86983</v>
       </c>
-      <c r="I105" s="3">
+      <c r="K105" s="3">
         <v>87049</v>
       </c>
-      <c r="J105" s="3">
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3">
         <v>30449</v>
       </c>
-      <c r="K105" s="3">
+      <c r="O105" s="3">
         <v>24187</v>
       </c>
-      <c r="L105" s="3">
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3">
         <v>9820365</v>
       </c>
-      <c r="M105" s="3">
+      <c r="S105" s="3">
         <v>8825050</v>
       </c>
-      <c r="N105" s="3">
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3">
         <v>363093</v>
       </c>
-      <c r="O105" s="3">
+      <c r="W105" s="3">
         <v>835227</v>
       </c>
-      <c r="P105" s="3">
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3">
         <v>246298</v>
       </c>
-      <c r="Q105" s="3">
+      <c r="AA105" s="3">
         <v>210617</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6084,38 +7193,48 @@
       <c r="G106" s="3">
         <v>8501508</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3">
         <v>808600</v>
       </c>
-      <c r="I106" s="3">
+      <c r="K106" s="3">
         <v>289682</v>
       </c>
-      <c r="J106" s="3">
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3">
         <v>246153</v>
       </c>
-      <c r="K106" s="3">
+      <c r="O106" s="3">
         <v>207888</v>
       </c>
-      <c r="L106" s="3">
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3">
         <v>61125572</v>
       </c>
-      <c r="M106" s="3">
+      <c r="S106" s="3">
         <v>81064102</v>
       </c>
-      <c r="N106" s="3">
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3">
         <v>2632614</v>
       </c>
-      <c r="O106" s="3">
+      <c r="W106" s="3">
         <v>2493204</v>
       </c>
-      <c r="P106" s="3">
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3">
         <v>1828433</v>
       </c>
-      <c r="Q106" s="3">
+      <c r="AA106" s="3">
         <v>1698041</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -6131,8 +7250,18 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+      <c r="AA107" s="3"/>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -6148,8 +7277,18 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="3"/>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -6165,8 +7304,18 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="3"/>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -6182,8 +7331,18 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -6199,8 +7358,18 @@
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -6216,8 +7385,18 @@
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+      <c r="AA112" s="3"/>
+    </row>
+    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -6233,8 +7412,18 @@
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+    </row>
+    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -6250,8 +7439,18 @@
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+    </row>
+    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -6267,8 +7466,18 @@
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+      <c r="AA115" s="3"/>
+    </row>
+    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -6284,8 +7493,18 @@
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+      <c r="AA116" s="3"/>
+    </row>
+    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -6301,8 +7520,18 @@
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+    </row>
+    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -6318,53 +7547,63 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
+      <c r="AA118" s="3"/>
+    </row>
+    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>

--- a/rtss-pre1917/src/main/resources/ugvi/1905.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1905.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12588253-4838-4F43-A380-85CCA85B6ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD9AAC3-2843-4649-8977-9E8ADEFBFB80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" xr2:uid="{EF18974A-21BE-4F01-A442-1E4708B6D095}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
   <si>
     <t>губ</t>
   </si>
@@ -399,40 +399,7 @@
     <t>чс-уез-ж YY</t>
   </si>
   <si>
-    <t>1Ш1</t>
-  </si>
-  <si>
-    <t>ІЗШ</t>
-  </si>
-  <si>
-    <t>3841'</t>
-  </si>
-  <si>
-    <t>280"</t>
-  </si>
-  <si>
-    <t>72150С</t>
-  </si>
-  <si>
     <t>—</t>
-  </si>
-  <si>
-    <t>1І58405</t>
-  </si>
-  <si>
-    <t>18080$</t>
-  </si>
-  <si>
-    <t>13454!</t>
-  </si>
-  <si>
-    <t>16*4197</t>
-  </si>
-  <si>
-    <t>2216С</t>
-  </si>
-  <si>
-    <t>2Ш</t>
   </si>
   <si>
     <t>чж-гор-о NYY</t>
@@ -820,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D5B6F9-649D-48D0-A365-7FB0E4D5C1A0}">
   <dimension ref="A1:AC466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:AC1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,10 +835,10 @@
         <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>112</v>
@@ -880,10 +847,10 @@
         <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>114</v>
@@ -892,10 +859,10 @@
         <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>116</v>
@@ -904,10 +871,10 @@
         <v>117</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>118</v>
@@ -916,10 +883,10 @@
         <v>119</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>120</v>
@@ -928,10 +895,10 @@
         <v>121</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1019,7 +986,7 @@
         <v>3612</v>
       </c>
       <c r="K3" s="3">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1079,7 +1046,7 @@
         <v>4331</v>
       </c>
       <c r="K4" s="3">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1139,7 +1106,7 @@
         <v>4367</v>
       </c>
       <c r="K5" s="3">
-        <v>3867</v>
+        <v>3667</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1198,8 +1165,8 @@
       <c r="J6" s="3">
         <v>4797</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>124</v>
+      <c r="K6" s="3">
+        <v>3640</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1258,8 +1225,8 @@
       <c r="J7" s="3">
         <v>3537</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>125</v>
+      <c r="K7" s="3">
+        <v>2808</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1271,8 +1238,8 @@
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
-        <v>126</v>
+      <c r="R7" s="3">
+        <v>721500</v>
       </c>
       <c r="S7" s="3">
         <v>709666</v>
@@ -1315,8 +1282,8 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>122</v>
+      <c r="J8" s="3">
+        <v>11111</v>
       </c>
       <c r="K8" s="3">
         <v>10316</v>
@@ -1454,8 +1421,8 @@
       <c r="R10" s="3">
         <v>1153403</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>128</v>
+      <c r="S10" s="3">
+        <v>1158407</v>
       </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -1795,8 +1762,8 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>123</v>
+      <c r="J16" s="3">
+        <v>13111</v>
       </c>
       <c r="K16" s="3">
         <v>11549</v>
@@ -3734,8 +3701,8 @@
       <c r="R48" s="3">
         <v>1572300</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>131</v>
+      <c r="S48" s="3">
+        <v>1684197</v>
       </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -4395,20 +4362,20 @@
         <v>109</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>109</v>
@@ -4667,8 +4634,8 @@
       <c r="D64" s="2">
         <v>86314</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>129</v>
+      <c r="F64" s="3">
+        <v>180809</v>
       </c>
       <c r="G64" s="3">
         <v>174051</v>
@@ -5087,8 +5054,8 @@
       <c r="D71" s="2">
         <v>102139</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>130</v>
+      <c r="F71" s="3">
+        <v>134545</v>
       </c>
       <c r="G71" s="3">
         <v>12497</v>
@@ -5810,8 +5777,8 @@
       <c r="F83" s="3">
         <v>34632</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>132</v>
+      <c r="G83" s="3">
+        <v>22160</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -6355,8 +6322,8 @@
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-      <c r="J92" s="3" t="s">
-        <v>133</v>
+      <c r="J92" s="3">
+        <v>2659</v>
       </c>
       <c r="K92" s="3">
         <v>2476</v>

--- a/rtss-pre1917/src/main/resources/ugvi/1905.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1905.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14002539-4F80-4857-91E6-A88BD5EC08BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77810CE8-70D6-4FE9-9DAE-080B80552EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57660" yWindow="75" windowWidth="28950" windowHeight="23100" xr2:uid="{EF18974A-21BE-4F01-A442-1E4708B6D095}"/>
+    <workbookView xWindow="57495" yWindow="75" windowWidth="27645" windowHeight="22020" xr2:uid="{EF18974A-21BE-4F01-A442-1E4708B6D095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -802,10 +802,10 @@
   <dimension ref="A1:AC466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA83" sqref="AA83"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2696,14 +2696,14 @@
         <v>14448</v>
       </c>
       <c r="K21" s="3">
-        <v>14386</v>
+        <v>14385</v>
       </c>
       <c r="L21" s="3">
         <v>28833</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>8603</v>
